--- a/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,16 +712,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>26816600</v>
+        <v>26632600</v>
       </c>
       <c r="E8" s="3">
-        <v>25759700</v>
+        <v>25583000</v>
       </c>
       <c r="F8" s="3">
-        <v>25185100</v>
+        <v>25012300</v>
       </c>
       <c r="G8" s="3">
-        <v>23303600</v>
+        <v>23143700</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -739,16 +739,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>20207400</v>
+        <v>20068700</v>
       </c>
       <c r="E9" s="3">
-        <v>18946600</v>
+        <v>18816600</v>
       </c>
       <c r="F9" s="3">
-        <v>18474600</v>
+        <v>18347800</v>
       </c>
       <c r="G9" s="3">
-        <v>17979500</v>
+        <v>17856100</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -766,16 +766,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6609200</v>
+        <v>6563900</v>
       </c>
       <c r="E10" s="3">
-        <v>6813200</v>
+        <v>6766400</v>
       </c>
       <c r="F10" s="3">
-        <v>6710600</v>
+        <v>6664500</v>
       </c>
       <c r="G10" s="3">
-        <v>5324100</v>
+        <v>5287500</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -860,13 +860,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>906800</v>
+        <v>900600</v>
       </c>
       <c r="E14" s="3">
-        <v>279600</v>
+        <v>277700</v>
       </c>
       <c r="F14" s="3">
-        <v>2538300</v>
+        <v>2520900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -887,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>575900</v>
+        <v>571900</v>
       </c>
       <c r="E15" s="3">
-        <v>492500</v>
+        <v>489100</v>
       </c>
       <c r="F15" s="3">
-        <v>377100</v>
+        <v>374500</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -924,16 +924,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25684100</v>
+        <v>25507800</v>
       </c>
       <c r="E17" s="3">
-        <v>23371500</v>
+        <v>23211200</v>
       </c>
       <c r="F17" s="3">
-        <v>24855500</v>
+        <v>24685000</v>
       </c>
       <c r="G17" s="3">
-        <v>21776000</v>
+        <v>21626600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -951,16 +951,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1132500</v>
+        <v>1124800</v>
       </c>
       <c r="E18" s="3">
-        <v>2388200</v>
+        <v>2371800</v>
       </c>
       <c r="F18" s="3">
-        <v>329600</v>
+        <v>327400</v>
       </c>
       <c r="G18" s="3">
-        <v>1527600</v>
+        <v>1517100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -991,16 +991,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-57700</v>
+        <v>-57300</v>
       </c>
       <c r="E20" s="3">
-        <v>-82100</v>
+        <v>-81500</v>
       </c>
       <c r="F20" s="3">
-        <v>138500</v>
+        <v>137600</v>
       </c>
       <c r="G20" s="3">
-        <v>-660500</v>
+        <v>-656000</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3591900</v>
+        <v>3610600</v>
       </c>
       <c r="E21" s="3">
-        <v>4582700</v>
+        <v>4590500</v>
       </c>
       <c r="F21" s="3">
-        <v>2482800</v>
+        <v>2500500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1045,13 +1045,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>584900</v>
+        <v>580900</v>
       </c>
       <c r="E22" s="3">
-        <v>628500</v>
+        <v>624200</v>
       </c>
       <c r="F22" s="3">
-        <v>627200</v>
+        <v>622900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>490000</v>
+        <v>486600</v>
       </c>
       <c r="E23" s="3">
-        <v>1677600</v>
+        <v>1666100</v>
       </c>
       <c r="F23" s="3">
-        <v>-159000</v>
+        <v>-158000</v>
       </c>
       <c r="G23" s="3">
-        <v>867000</v>
+        <v>861100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1099,16 +1099,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-98800</v>
+        <v>-98100</v>
       </c>
       <c r="E24" s="3">
-        <v>405300</v>
+        <v>402500</v>
       </c>
       <c r="F24" s="3">
-        <v>-119300</v>
+        <v>-118500</v>
       </c>
       <c r="G24" s="3">
-        <v>25700</v>
+        <v>25500</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1153,16 +1153,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>588700</v>
+        <v>584700</v>
       </c>
       <c r="E26" s="3">
-        <v>1272300</v>
+        <v>1263600</v>
       </c>
       <c r="F26" s="3">
-        <v>-39800</v>
+        <v>-39500</v>
       </c>
       <c r="G26" s="3">
-        <v>841400</v>
+        <v>835600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1180,16 +1180,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>588700</v>
+        <v>584700</v>
       </c>
       <c r="E27" s="3">
-        <v>1272300</v>
+        <v>1263600</v>
       </c>
       <c r="F27" s="3">
-        <v>-39800</v>
+        <v>-39500</v>
       </c>
       <c r="G27" s="3">
-        <v>841400</v>
+        <v>835600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1240,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>4622500</v>
+        <v>4590800</v>
       </c>
       <c r="G29" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1315,16 +1315,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>57700</v>
+        <v>57300</v>
       </c>
       <c r="E32" s="3">
-        <v>82100</v>
+        <v>81500</v>
       </c>
       <c r="F32" s="3">
-        <v>-138500</v>
+        <v>-137600</v>
       </c>
       <c r="G32" s="3">
-        <v>660500</v>
+        <v>656000</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>588700</v>
+        <v>584700</v>
       </c>
       <c r="E33" s="3">
-        <v>1272300</v>
+        <v>1263600</v>
       </c>
       <c r="F33" s="3">
-        <v>4582700</v>
+        <v>4551300</v>
       </c>
       <c r="G33" s="3">
-        <v>823400</v>
+        <v>817800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1396,16 +1396,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>588700</v>
+        <v>584700</v>
       </c>
       <c r="E35" s="3">
-        <v>1272300</v>
+        <v>1263600</v>
       </c>
       <c r="F35" s="3">
-        <v>4582700</v>
+        <v>4551300</v>
       </c>
       <c r="G35" s="3">
-        <v>823400</v>
+        <v>817800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1481,16 +1481,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3628500</v>
+        <v>3603600</v>
       </c>
       <c r="E41" s="3">
-        <v>682300</v>
+        <v>677700</v>
       </c>
       <c r="F41" s="3">
-        <v>1931600</v>
+        <v>1918300</v>
       </c>
       <c r="G41" s="3">
-        <v>746500</v>
+        <v>741400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1508,13 +1508,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>101300</v>
+        <v>100600</v>
       </c>
       <c r="E42" s="3">
-        <v>178300</v>
+        <v>177100</v>
       </c>
       <c r="F42" s="3">
-        <v>1036300</v>
+        <v>1029200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1535,13 +1535,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4593000</v>
+        <v>4561500</v>
       </c>
       <c r="E43" s="3">
-        <v>4543000</v>
+        <v>4511800</v>
       </c>
       <c r="F43" s="3">
-        <v>4286400</v>
+        <v>4257000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1562,16 +1562,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12646400</v>
+        <v>12559700</v>
       </c>
       <c r="E44" s="3">
-        <v>6380900</v>
+        <v>6337200</v>
       </c>
       <c r="F44" s="3">
-        <v>6306500</v>
+        <v>6263300</v>
       </c>
       <c r="G44" s="3">
-        <v>5270200</v>
+        <v>5234000</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1589,16 +1589,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1930300</v>
+        <v>1917100</v>
       </c>
       <c r="E45" s="3">
-        <v>1894400</v>
+        <v>1881400</v>
       </c>
       <c r="F45" s="3">
-        <v>1396800</v>
+        <v>1387200</v>
       </c>
       <c r="G45" s="3">
-        <v>4051700</v>
+        <v>4023900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1616,16 +1616,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14711400</v>
+        <v>14610500</v>
       </c>
       <c r="E46" s="3">
-        <v>13678900</v>
+        <v>13585100</v>
       </c>
       <c r="F46" s="3">
-        <v>14957700</v>
+        <v>14855100</v>
       </c>
       <c r="G46" s="3">
-        <v>13804600</v>
+        <v>13709900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1643,16 +1643,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1441600</v>
+        <v>1431800</v>
       </c>
       <c r="E47" s="3">
-        <v>1053000</v>
+        <v>1045800</v>
       </c>
       <c r="F47" s="3">
-        <v>1172300</v>
+        <v>1164300</v>
       </c>
       <c r="G47" s="3">
-        <v>1044000</v>
+        <v>1036900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1670,16 +1670,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50431800</v>
+        <v>50085800</v>
       </c>
       <c r="E48" s="3">
-        <v>26081700</v>
+        <v>25902700</v>
       </c>
       <c r="F48" s="3">
-        <v>24107700</v>
+        <v>23942300</v>
       </c>
       <c r="G48" s="3">
-        <v>25731500</v>
+        <v>25555000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1697,16 +1697,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37416000</v>
+        <v>37159300</v>
       </c>
       <c r="E49" s="3">
-        <v>18487400</v>
+        <v>18360600</v>
       </c>
       <c r="F49" s="3">
-        <v>17811500</v>
+        <v>17689300</v>
       </c>
       <c r="G49" s="3">
-        <v>3734900</v>
+        <v>3709300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1778,16 +1778,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1172300</v>
+        <v>1164300</v>
       </c>
       <c r="E52" s="3">
-        <v>723400</v>
+        <v>718400</v>
       </c>
       <c r="F52" s="3">
-        <v>311700</v>
+        <v>309500</v>
       </c>
       <c r="G52" s="3">
-        <v>498900</v>
+        <v>495500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1832,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60528500</v>
+        <v>60113200</v>
       </c>
       <c r="E54" s="3">
-        <v>60024400</v>
+        <v>59612600</v>
       </c>
       <c r="F54" s="3">
-        <v>58360900</v>
+        <v>57960400</v>
       </c>
       <c r="G54" s="3">
-        <v>44814000</v>
+        <v>44506600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1885,16 +1885,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16726400</v>
+        <v>16611600</v>
       </c>
       <c r="E57" s="3">
-        <v>5915400</v>
+        <v>5874800</v>
       </c>
       <c r="F57" s="3">
-        <v>4712300</v>
+        <v>4679900</v>
       </c>
       <c r="G57" s="3">
-        <v>7864900</v>
+        <v>7810900</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1912,16 +1912,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>541300</v>
+        <v>537500</v>
       </c>
       <c r="E58" s="3">
-        <v>2170200</v>
+        <v>2155300</v>
       </c>
       <c r="F58" s="3">
-        <v>2093200</v>
+        <v>2078800</v>
       </c>
       <c r="G58" s="3">
-        <v>2062400</v>
+        <v>2048300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1939,16 +1939,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3882400</v>
+        <v>3855800</v>
       </c>
       <c r="E59" s="3">
-        <v>3623300</v>
+        <v>3598500</v>
       </c>
       <c r="F59" s="3">
-        <v>3885000</v>
+        <v>3858300</v>
       </c>
       <c r="G59" s="3">
-        <v>46200</v>
+        <v>45900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1966,16 +1966,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10876400</v>
+        <v>10801800</v>
       </c>
       <c r="E60" s="3">
-        <v>11708900</v>
+        <v>11628500</v>
       </c>
       <c r="F60" s="3">
-        <v>10690500</v>
+        <v>10617100</v>
       </c>
       <c r="G60" s="3">
-        <v>9973500</v>
+        <v>9905100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1993,16 +1993,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14029100</v>
+        <v>13932800</v>
       </c>
       <c r="E61" s="3">
-        <v>12071800</v>
+        <v>11989000</v>
       </c>
       <c r="F61" s="3">
-        <v>9736200</v>
+        <v>9669400</v>
       </c>
       <c r="G61" s="3">
-        <v>10399300</v>
+        <v>10328000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2020,16 +2020,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6888800</v>
+        <v>6841600</v>
       </c>
       <c r="E62" s="3">
-        <v>6911900</v>
+        <v>6864500</v>
       </c>
       <c r="F62" s="3">
-        <v>6606700</v>
+        <v>6561300</v>
       </c>
       <c r="G62" s="3">
-        <v>5941000</v>
+        <v>5900200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2128,16 +2128,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31843100</v>
+        <v>31624600</v>
       </c>
       <c r="E66" s="3">
-        <v>30692600</v>
+        <v>30482000</v>
       </c>
       <c r="F66" s="3">
-        <v>27033400</v>
+        <v>26847900</v>
       </c>
       <c r="G66" s="3">
-        <v>26313800</v>
+        <v>26133300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2276,13 +2276,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8472900</v>
+        <v>8414700</v>
       </c>
       <c r="E72" s="3">
-        <v>9107700</v>
+        <v>9045300</v>
       </c>
       <c r="F72" s="3">
-        <v>9933700</v>
+        <v>9865600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2384,16 +2384,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28685300</v>
+        <v>28488500</v>
       </c>
       <c r="E76" s="3">
-        <v>29331800</v>
+        <v>29130500</v>
       </c>
       <c r="F76" s="3">
-        <v>31327500</v>
+        <v>31112600</v>
       </c>
       <c r="G76" s="3">
-        <v>18500200</v>
+        <v>18373300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2470,16 +2470,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>588700</v>
+        <v>584700</v>
       </c>
       <c r="E81" s="3">
-        <v>1272300</v>
+        <v>1263600</v>
       </c>
       <c r="F81" s="3">
-        <v>4582700</v>
+        <v>4551300</v>
       </c>
       <c r="G81" s="3">
-        <v>823400</v>
+        <v>817800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2551100</v>
+        <v>2533600</v>
       </c>
       <c r="E83" s="3">
-        <v>2307400</v>
+        <v>2291600</v>
       </c>
       <c r="F83" s="3">
-        <v>2041900</v>
+        <v>2027900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4262100</v>
+        <v>4232800</v>
       </c>
       <c r="E89" s="3">
-        <v>4700700</v>
+        <v>4668500</v>
       </c>
       <c r="F89" s="3">
-        <v>2631900</v>
+        <v>2613800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1825100</v>
+        <v>-1812600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2216300</v>
+        <v>-2201100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1802100</v>
+        <v>-1789700</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1544300</v>
+        <v>-1533700</v>
       </c>
       <c r="E94" s="3">
-        <v>-3588700</v>
+        <v>-3564100</v>
       </c>
       <c r="F94" s="3">
-        <v>4985500</v>
+        <v>4951300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2833,13 +2833,13 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1321100</v>
+        <v>-1312000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1310800</v>
+        <v>-1301800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1221000</v>
+        <v>-1212700</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1717400</v>
+        <v>-1705600</v>
       </c>
       <c r="E100" s="3">
-        <v>-3179600</v>
+        <v>-3157800</v>
       </c>
       <c r="F100" s="3">
-        <v>-4752000</v>
+        <v>-4719400</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2971,10 +2971,10 @@
         <v>3800</v>
       </c>
       <c r="E101" s="3">
-        <v>-39800</v>
+        <v>-39500</v>
       </c>
       <c r="F101" s="3">
-        <v>-46200</v>
+        <v>-45900</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -2995,13 +2995,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1004300</v>
+        <v>997400</v>
       </c>
       <c r="E102" s="3">
-        <v>-2107300</v>
+        <v>-2092900</v>
       </c>
       <c r="F102" s="3">
-        <v>2819200</v>
+        <v>2799800</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>NTR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,69 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>26632600</v>
+        <v>35313400</v>
       </c>
       <c r="E8" s="3">
-        <v>25583000</v>
+        <v>26643100</v>
       </c>
       <c r="F8" s="3">
-        <v>25012300</v>
+        <v>25593000</v>
       </c>
       <c r="G8" s="3">
-        <v>23143700</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>25022200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>23152800</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -732,26 +735,29 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>20068700</v>
+        <v>23758000</v>
       </c>
       <c r="E9" s="3">
-        <v>18816600</v>
+        <v>20076600</v>
       </c>
       <c r="F9" s="3">
-        <v>18347800</v>
+        <v>18824000</v>
       </c>
       <c r="G9" s="3">
-        <v>17856100</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>18355000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>17863100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -759,26 +765,29 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6563900</v>
+        <v>11555400</v>
       </c>
       <c r="E10" s="3">
-        <v>6766400</v>
+        <v>6566500</v>
       </c>
       <c r="F10" s="3">
-        <v>6664500</v>
+        <v>6769100</v>
       </c>
       <c r="G10" s="3">
-        <v>5287500</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>6667100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5289600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,23 +869,26 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>900600</v>
+        <v>335100</v>
       </c>
       <c r="E14" s="3">
-        <v>277700</v>
+        <v>900900</v>
       </c>
       <c r="F14" s="3">
-        <v>2520900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+        <v>277800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2521800</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -880,23 +899,26 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>571900</v>
+        <v>907300</v>
       </c>
       <c r="E15" s="3">
-        <v>489100</v>
+        <v>572200</v>
       </c>
       <c r="F15" s="3">
-        <v>374500</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>489300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>374600</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,25 +943,26 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>25507800</v>
+        <v>29401900</v>
       </c>
       <c r="E17" s="3">
-        <v>23211200</v>
+        <v>25517900</v>
       </c>
       <c r="F17" s="3">
-        <v>24685000</v>
+        <v>23220300</v>
       </c>
       <c r="G17" s="3">
-        <v>21626600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>24694700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>21635100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -944,26 +970,29 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1124800</v>
+        <v>5911500</v>
       </c>
       <c r="E18" s="3">
-        <v>2371800</v>
+        <v>1125200</v>
       </c>
       <c r="F18" s="3">
-        <v>327400</v>
+        <v>2372700</v>
       </c>
       <c r="G18" s="3">
-        <v>1517100</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>327500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1517700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,25 +1017,26 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-57300</v>
       </c>
-      <c r="E20" s="3">
-        <v>-81500</v>
-      </c>
       <c r="F20" s="3">
+        <v>-81600</v>
+      </c>
+      <c r="G20" s="3">
         <v>137600</v>
       </c>
-      <c r="G20" s="3">
-        <v>-656000</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>-656300</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1011,23 +1044,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3610600</v>
+        <v>8419700</v>
       </c>
       <c r="E21" s="3">
-        <v>4590500</v>
+        <v>3614600</v>
       </c>
       <c r="F21" s="3">
-        <v>2500500</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>4594600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2503500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,23 +1074,26 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>580900</v>
+        <v>610400</v>
       </c>
       <c r="E22" s="3">
-        <v>624200</v>
+        <v>581100</v>
       </c>
       <c r="F22" s="3">
-        <v>622900</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>624400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>623100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1065,26 +1104,29 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>486600</v>
+        <v>5311300</v>
       </c>
       <c r="E23" s="3">
-        <v>1666100</v>
+        <v>486800</v>
       </c>
       <c r="F23" s="3">
+        <v>1666800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-158000</v>
       </c>
-      <c r="G23" s="3">
-        <v>861100</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="H23" s="3">
+        <v>861400</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1092,36 +1134,42 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1260300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-98100</v>
       </c>
-      <c r="E24" s="3">
-        <v>402500</v>
-      </c>
       <c r="F24" s="3">
+        <v>402700</v>
+      </c>
+      <c r="G24" s="3">
         <v>-118500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>25500</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,26 +1194,29 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>584700</v>
+        <v>4051000</v>
       </c>
       <c r="E26" s="3">
-        <v>1263600</v>
+        <v>584900</v>
       </c>
       <c r="F26" s="3">
+        <v>1264100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-39500</v>
       </c>
-      <c r="G26" s="3">
-        <v>835600</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="H26" s="3">
+        <v>835900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1173,26 +1224,29 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>584700</v>
+        <v>4017900</v>
       </c>
       <c r="E27" s="3">
-        <v>1263600</v>
+        <v>584900</v>
       </c>
       <c r="F27" s="3">
+        <v>1264100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-39500</v>
       </c>
-      <c r="G27" s="3">
-        <v>835600</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="H27" s="3">
+        <v>835900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,36 +1284,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
-        <v>4590800</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>4592600</v>
+      </c>
+      <c r="H29" s="3">
         <v>-17800</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,26 +1374,29 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E32" s="3">
         <v>57300</v>
       </c>
-      <c r="E32" s="3">
-        <v>81500</v>
-      </c>
       <c r="F32" s="3">
+        <v>81600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-137600</v>
       </c>
-      <c r="G32" s="3">
-        <v>656000</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>656300</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1335,26 +1404,29 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>584700</v>
+        <v>4017900</v>
       </c>
       <c r="E33" s="3">
-        <v>1263600</v>
+        <v>584900</v>
       </c>
       <c r="F33" s="3">
-        <v>4551300</v>
+        <v>1264100</v>
       </c>
       <c r="G33" s="3">
-        <v>817800</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>4553100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>818100</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,26 +1464,29 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>584700</v>
+        <v>4017900</v>
       </c>
       <c r="E35" s="3">
-        <v>1263600</v>
+        <v>584900</v>
       </c>
       <c r="F35" s="3">
-        <v>4551300</v>
+        <v>1264100</v>
       </c>
       <c r="G35" s="3">
-        <v>817800</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>4553100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>818100</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1416,41 +1494,47 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,25 +1560,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3603600</v>
+        <v>545400</v>
       </c>
       <c r="E41" s="3">
-        <v>677700</v>
+        <v>3605000</v>
       </c>
       <c r="F41" s="3">
-        <v>1918300</v>
+        <v>677900</v>
       </c>
       <c r="G41" s="3">
-        <v>741400</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>1919100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>741600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1501,23 +1587,26 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100600</v>
+        <v>90500</v>
       </c>
       <c r="E42" s="3">
+        <v>100700</v>
+      </c>
+      <c r="F42" s="3">
         <v>177100</v>
       </c>
-      <c r="F42" s="3">
-        <v>1029200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3">
+        <v>1029600</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1528,23 +1617,26 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4561500</v>
+        <v>6837900</v>
       </c>
       <c r="E43" s="3">
-        <v>4511800</v>
+        <v>4563300</v>
       </c>
       <c r="F43" s="3">
-        <v>4257000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>4513600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4258700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,26 +1647,29 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12559700</v>
+        <v>8063800</v>
       </c>
       <c r="E44" s="3">
-        <v>6337200</v>
+        <v>12564600</v>
       </c>
       <c r="F44" s="3">
-        <v>6263300</v>
+        <v>6339600</v>
       </c>
       <c r="G44" s="3">
-        <v>5234000</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>6265700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>5236100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1582,26 +1677,29 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1917100</v>
+        <v>2106400</v>
       </c>
       <c r="E45" s="3">
-        <v>1881400</v>
+        <v>1917800</v>
       </c>
       <c r="F45" s="3">
-        <v>1387200</v>
+        <v>1882100</v>
       </c>
       <c r="G45" s="3">
-        <v>4023900</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>1387700</v>
+      </c>
+      <c r="H45" s="3">
+        <v>4025500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1609,26 +1707,29 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14610500</v>
+        <v>17644000</v>
       </c>
       <c r="E46" s="3">
-        <v>13585100</v>
+        <v>14616200</v>
       </c>
       <c r="F46" s="3">
-        <v>14855100</v>
+        <v>13590400</v>
       </c>
       <c r="G46" s="3">
-        <v>13709900</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>14860900</v>
+      </c>
+      <c r="H46" s="3">
+        <v>13715300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1636,26 +1737,29 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1431800</v>
+        <v>1107400</v>
       </c>
       <c r="E47" s="3">
-        <v>1045800</v>
+        <v>1432300</v>
       </c>
       <c r="F47" s="3">
-        <v>1164300</v>
+        <v>1046200</v>
       </c>
       <c r="G47" s="3">
-        <v>1036900</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>1164700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1037300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1663,26 +1767,29 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50085800</v>
+        <v>25506400</v>
       </c>
       <c r="E48" s="3">
-        <v>25902700</v>
+        <v>50105500</v>
       </c>
       <c r="F48" s="3">
-        <v>23942300</v>
+        <v>25912900</v>
       </c>
       <c r="G48" s="3">
-        <v>25555000</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>23951700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>25565000</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1690,26 +1797,29 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37159300</v>
+        <v>18665900</v>
       </c>
       <c r="E49" s="3">
-        <v>18360600</v>
+        <v>37173900</v>
       </c>
       <c r="F49" s="3">
-        <v>17689300</v>
+        <v>18367800</v>
       </c>
       <c r="G49" s="3">
-        <v>3709300</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>17696200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3710800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,26 +1887,29 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1164300</v>
+        <v>732700</v>
       </c>
       <c r="E52" s="3">
-        <v>718400</v>
+        <v>1164700</v>
       </c>
       <c r="F52" s="3">
-        <v>309500</v>
+        <v>718700</v>
       </c>
       <c r="G52" s="3">
-        <v>495500</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>309700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>495700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,26 +1947,29 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60113200</v>
+        <v>63656400</v>
       </c>
       <c r="E54" s="3">
-        <v>59612600</v>
+        <v>60136800</v>
       </c>
       <c r="F54" s="3">
-        <v>57960400</v>
+        <v>59636000</v>
       </c>
       <c r="G54" s="3">
-        <v>44506600</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>57983200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>44524000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,25 +2008,26 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>16611600</v>
+        <v>7602500</v>
       </c>
       <c r="E57" s="3">
-        <v>5874800</v>
+        <v>16618100</v>
       </c>
       <c r="F57" s="3">
-        <v>4679900</v>
+        <v>5877100</v>
       </c>
       <c r="G57" s="3">
-        <v>7810900</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>4681800</v>
+      </c>
+      <c r="H57" s="3">
+        <v>7814000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -1905,26 +2035,29 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>537500</v>
+        <v>3046900</v>
       </c>
       <c r="E58" s="3">
-        <v>2155300</v>
+        <v>537800</v>
       </c>
       <c r="F58" s="3">
-        <v>2078800</v>
+        <v>2156100</v>
       </c>
       <c r="G58" s="3">
-        <v>2048300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>2079700</v>
+      </c>
+      <c r="H58" s="3">
+        <v>2049100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -1932,53 +2065,59 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3855800</v>
+        <v>5206800</v>
       </c>
       <c r="E59" s="3">
-        <v>3598500</v>
+        <v>3857300</v>
       </c>
       <c r="F59" s="3">
-        <v>3858300</v>
+        <v>3599900</v>
       </c>
       <c r="G59" s="3">
+        <v>3859900</v>
+      </c>
+      <c r="H59" s="3">
         <v>45900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10801800</v>
+        <v>15856100</v>
       </c>
       <c r="E60" s="3">
-        <v>11628500</v>
+        <v>10806100</v>
       </c>
       <c r="F60" s="3">
-        <v>10617100</v>
+        <v>11633100</v>
       </c>
       <c r="G60" s="3">
-        <v>9905100</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>10621300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>9909000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -1986,26 +2125,29 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13932800</v>
+        <v>10774200</v>
       </c>
       <c r="E61" s="3">
-        <v>11989000</v>
+        <v>13938300</v>
       </c>
       <c r="F61" s="3">
-        <v>9669400</v>
+        <v>11993700</v>
       </c>
       <c r="G61" s="3">
-        <v>10328000</v>
+        <v>9673200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>10332000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2013,26 +2155,29 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6841600</v>
+        <v>6826400</v>
       </c>
       <c r="E62" s="3">
-        <v>6864500</v>
+        <v>6844300</v>
       </c>
       <c r="F62" s="3">
-        <v>6561300</v>
+        <v>6867200</v>
       </c>
       <c r="G62" s="3">
-        <v>5900200</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>6563900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5902600</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,26 +2275,29 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31624600</v>
+        <v>33516600</v>
       </c>
       <c r="E66" s="3">
-        <v>30482000</v>
+        <v>31637000</v>
       </c>
       <c r="F66" s="3">
-        <v>26847900</v>
+        <v>30494000</v>
       </c>
       <c r="G66" s="3">
-        <v>26133300</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>26858400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>26143500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,23 +2439,26 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8414700</v>
+        <v>10439100</v>
       </c>
       <c r="E72" s="3">
-        <v>9045300</v>
+        <v>8418000</v>
       </c>
       <c r="F72" s="3">
-        <v>9865600</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>9048800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>9869500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,26 +2559,29 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28488500</v>
+        <v>30139700</v>
       </c>
       <c r="E76" s="3">
-        <v>29130500</v>
+        <v>28499700</v>
       </c>
       <c r="F76" s="3">
-        <v>31112600</v>
+        <v>29142000</v>
       </c>
       <c r="G76" s="3">
-        <v>18373300</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>31124800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>18380500</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,58 +2619,64 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>584700</v>
+        <v>4017900</v>
       </c>
       <c r="E81" s="3">
-        <v>1263600</v>
+        <v>584900</v>
       </c>
       <c r="F81" s="3">
-        <v>4551300</v>
+        <v>1264100</v>
       </c>
       <c r="G81" s="3">
-        <v>817800</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>4553100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>818100</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,22 +2701,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2533600</v>
+        <v>2486200</v>
       </c>
       <c r="E83" s="3">
-        <v>2291600</v>
+        <v>2534600</v>
       </c>
       <c r="F83" s="3">
-        <v>2027900</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>2292500</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2028700</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2878,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4232800</v>
+        <v>4951900</v>
       </c>
       <c r="E89" s="3">
-        <v>4668500</v>
+        <v>4234500</v>
       </c>
       <c r="F89" s="3">
-        <v>2613800</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>4670300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2614900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,22 +2925,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1812600</v>
+        <v>-2272100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2201100</v>
+        <v>-1813300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1789700</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-2202000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1790400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3012,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1533700</v>
+        <v>-2302700</v>
       </c>
       <c r="E94" s="3">
-        <v>-3564100</v>
+        <v>-1534300</v>
       </c>
       <c r="F94" s="3">
-        <v>4951300</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-3565500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>4953200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,22 +3059,23 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1312000</v>
+        <v>-1331600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1301800</v>
+        <v>-1312500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1212700</v>
+        <v>-1302300</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1213100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3176,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1705600</v>
+        <v>-3826700</v>
       </c>
       <c r="E100" s="3">
-        <v>-3157800</v>
+        <v>-1706300</v>
       </c>
       <c r="F100" s="3">
-        <v>-4719400</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>-3159000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-4721300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,24 +3206,27 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="E101" s="3">
         <v>3800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-39500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-45900</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,23 +3236,26 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>997400</v>
+        <v>-1217000</v>
       </c>
       <c r="E102" s="3">
-        <v>-2092900</v>
+        <v>997800</v>
       </c>
       <c r="F102" s="3">
-        <v>2799800</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>-2093700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>2800900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>35313400</v>
+        <v>36147500</v>
       </c>
       <c r="E8" s="3">
-        <v>26643100</v>
+        <v>27272400</v>
       </c>
       <c r="F8" s="3">
-        <v>25593000</v>
+        <v>26197600</v>
       </c>
       <c r="G8" s="3">
-        <v>25022200</v>
+        <v>25613200</v>
       </c>
       <c r="H8" s="3">
-        <v>23152800</v>
+        <v>23699600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>23758000</v>
+        <v>24319200</v>
       </c>
       <c r="E9" s="3">
-        <v>20076600</v>
+        <v>20550800</v>
       </c>
       <c r="F9" s="3">
-        <v>18824000</v>
+        <v>19268600</v>
       </c>
       <c r="G9" s="3">
-        <v>18355000</v>
+        <v>18788600</v>
       </c>
       <c r="H9" s="3">
-        <v>17863100</v>
+        <v>18285100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11555400</v>
+        <v>11828300</v>
       </c>
       <c r="E10" s="3">
-        <v>6566500</v>
+        <v>6721600</v>
       </c>
       <c r="F10" s="3">
-        <v>6769100</v>
+        <v>6929000</v>
       </c>
       <c r="G10" s="3">
-        <v>6667100</v>
+        <v>6824600</v>
       </c>
       <c r="H10" s="3">
-        <v>5289600</v>
+        <v>5414600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -879,16 +879,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>335100</v>
+        <v>343100</v>
       </c>
       <c r="E14" s="3">
-        <v>900900</v>
+        <v>922200</v>
       </c>
       <c r="F14" s="3">
-        <v>277800</v>
+        <v>284400</v>
       </c>
       <c r="G14" s="3">
-        <v>2521800</v>
+        <v>2581400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>907300</v>
+        <v>928700</v>
       </c>
       <c r="E15" s="3">
-        <v>572200</v>
+        <v>585700</v>
       </c>
       <c r="F15" s="3">
-        <v>489300</v>
+        <v>500900</v>
       </c>
       <c r="G15" s="3">
-        <v>374600</v>
+        <v>383500</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29401900</v>
+        <v>30096400</v>
       </c>
       <c r="E17" s="3">
-        <v>25517900</v>
+        <v>26120600</v>
       </c>
       <c r="F17" s="3">
-        <v>23220300</v>
+        <v>23768800</v>
       </c>
       <c r="G17" s="3">
-        <v>24694700</v>
+        <v>25278000</v>
       </c>
       <c r="H17" s="3">
-        <v>21635100</v>
+        <v>22146100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5911500</v>
+        <v>6051100</v>
       </c>
       <c r="E18" s="3">
-        <v>1125200</v>
+        <v>1151800</v>
       </c>
       <c r="F18" s="3">
-        <v>2372700</v>
+        <v>2428800</v>
       </c>
       <c r="G18" s="3">
-        <v>327500</v>
+        <v>335200</v>
       </c>
       <c r="H18" s="3">
-        <v>1517700</v>
+        <v>1553500</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1024,19 +1024,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="E20" s="3">
-        <v>-57300</v>
+        <v>-58700</v>
       </c>
       <c r="F20" s="3">
-        <v>-81600</v>
+        <v>-83500</v>
       </c>
       <c r="G20" s="3">
-        <v>137600</v>
+        <v>140900</v>
       </c>
       <c r="H20" s="3">
-        <v>-656300</v>
+        <v>-671800</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8419700</v>
+        <v>8596500</v>
       </c>
       <c r="E21" s="3">
-        <v>3614600</v>
+        <v>3677400</v>
       </c>
       <c r="F21" s="3">
-        <v>4594600</v>
+        <v>4682800</v>
       </c>
       <c r="G21" s="3">
-        <v>2503500</v>
+        <v>2544600</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1084,16 +1084,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>610400</v>
+        <v>624800</v>
       </c>
       <c r="E22" s="3">
-        <v>581100</v>
+        <v>594800</v>
       </c>
       <c r="F22" s="3">
-        <v>624400</v>
+        <v>639200</v>
       </c>
       <c r="G22" s="3">
-        <v>623100</v>
+        <v>637900</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5311300</v>
+        <v>5436700</v>
       </c>
       <c r="E23" s="3">
-        <v>486800</v>
+        <v>498300</v>
       </c>
       <c r="F23" s="3">
-        <v>1666800</v>
+        <v>1706200</v>
       </c>
       <c r="G23" s="3">
-        <v>-158000</v>
+        <v>-161700</v>
       </c>
       <c r="H23" s="3">
-        <v>861400</v>
+        <v>881800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1260300</v>
+        <v>1290100</v>
       </c>
       <c r="E24" s="3">
-        <v>-98100</v>
+        <v>-100400</v>
       </c>
       <c r="F24" s="3">
-        <v>402700</v>
+        <v>412200</v>
       </c>
       <c r="G24" s="3">
-        <v>-118500</v>
+        <v>-121300</v>
       </c>
       <c r="H24" s="3">
-        <v>25500</v>
+        <v>26100</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4051000</v>
+        <v>4146700</v>
       </c>
       <c r="E26" s="3">
-        <v>584900</v>
+        <v>598700</v>
       </c>
       <c r="F26" s="3">
-        <v>1264100</v>
+        <v>1294000</v>
       </c>
       <c r="G26" s="3">
-        <v>-39500</v>
+        <v>-40400</v>
       </c>
       <c r="H26" s="3">
-        <v>835900</v>
+        <v>855700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4017900</v>
+        <v>4112800</v>
       </c>
       <c r="E27" s="3">
-        <v>584900</v>
+        <v>598700</v>
       </c>
       <c r="F27" s="3">
-        <v>1264100</v>
+        <v>1294000</v>
       </c>
       <c r="G27" s="3">
-        <v>-39500</v>
+        <v>-40400</v>
       </c>
       <c r="H27" s="3">
-        <v>835900</v>
+        <v>855700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>4592600</v>
+        <v>4701100</v>
       </c>
       <c r="H29" s="3">
-        <v>-17800</v>
+        <v>-18300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1384,19 +1384,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10200</v>
+        <v>-10400</v>
       </c>
       <c r="E32" s="3">
-        <v>57300</v>
+        <v>58700</v>
       </c>
       <c r="F32" s="3">
-        <v>81600</v>
+        <v>83500</v>
       </c>
       <c r="G32" s="3">
-        <v>-137600</v>
+        <v>-140900</v>
       </c>
       <c r="H32" s="3">
-        <v>656300</v>
+        <v>671800</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4017900</v>
+        <v>4112800</v>
       </c>
       <c r="E33" s="3">
-        <v>584900</v>
+        <v>598700</v>
       </c>
       <c r="F33" s="3">
-        <v>1264100</v>
+        <v>1294000</v>
       </c>
       <c r="G33" s="3">
-        <v>4553100</v>
+        <v>4660600</v>
       </c>
       <c r="H33" s="3">
-        <v>818100</v>
+        <v>837400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4017900</v>
+        <v>4112800</v>
       </c>
       <c r="E35" s="3">
-        <v>584900</v>
+        <v>598700</v>
       </c>
       <c r="F35" s="3">
-        <v>1264100</v>
+        <v>1294000</v>
       </c>
       <c r="G35" s="3">
-        <v>4553100</v>
+        <v>4660600</v>
       </c>
       <c r="H35" s="3">
-        <v>818100</v>
+        <v>837400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,19 +1567,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>545400</v>
+        <v>558300</v>
       </c>
       <c r="E41" s="3">
-        <v>3605000</v>
+        <v>3690100</v>
       </c>
       <c r="F41" s="3">
-        <v>677900</v>
+        <v>693900</v>
       </c>
       <c r="G41" s="3">
-        <v>1919100</v>
+        <v>1964400</v>
       </c>
       <c r="H41" s="3">
-        <v>741600</v>
+        <v>759200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>90500</v>
+        <v>92600</v>
       </c>
       <c r="E42" s="3">
-        <v>100700</v>
+        <v>103000</v>
       </c>
       <c r="F42" s="3">
-        <v>177100</v>
+        <v>181300</v>
       </c>
       <c r="G42" s="3">
-        <v>1029600</v>
+        <v>1054000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6837900</v>
+        <v>6999400</v>
       </c>
       <c r="E43" s="3">
-        <v>4563300</v>
+        <v>4671100</v>
       </c>
       <c r="F43" s="3">
-        <v>4513600</v>
+        <v>4620200</v>
       </c>
       <c r="G43" s="3">
-        <v>4258700</v>
+        <v>4359300</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1657,19 +1657,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8063800</v>
+        <v>8254200</v>
       </c>
       <c r="E44" s="3">
-        <v>12564600</v>
+        <v>12861400</v>
       </c>
       <c r="F44" s="3">
-        <v>6339600</v>
+        <v>6489400</v>
       </c>
       <c r="G44" s="3">
-        <v>6265700</v>
+        <v>6413700</v>
       </c>
       <c r="H44" s="3">
-        <v>5236100</v>
+        <v>5359800</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1687,19 +1687,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2106400</v>
+        <v>2156200</v>
       </c>
       <c r="E45" s="3">
-        <v>1917800</v>
+        <v>1963100</v>
       </c>
       <c r="F45" s="3">
-        <v>1882100</v>
+        <v>1926600</v>
       </c>
       <c r="G45" s="3">
-        <v>1387700</v>
+        <v>1420500</v>
       </c>
       <c r="H45" s="3">
-        <v>4025500</v>
+        <v>4120600</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1717,19 +1717,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17644000</v>
+        <v>18060700</v>
       </c>
       <c r="E46" s="3">
-        <v>14616200</v>
+        <v>14961500</v>
       </c>
       <c r="F46" s="3">
-        <v>13590400</v>
+        <v>13911400</v>
       </c>
       <c r="G46" s="3">
-        <v>14860900</v>
+        <v>15211900</v>
       </c>
       <c r="H46" s="3">
-        <v>13715300</v>
+        <v>14039300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1747,19 +1747,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1107400</v>
+        <v>1133500</v>
       </c>
       <c r="E47" s="3">
-        <v>1432300</v>
+        <v>1466100</v>
       </c>
       <c r="F47" s="3">
-        <v>1046200</v>
+        <v>1070900</v>
       </c>
       <c r="G47" s="3">
-        <v>1164700</v>
+        <v>1192200</v>
       </c>
       <c r="H47" s="3">
-        <v>1037300</v>
+        <v>1061800</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1777,19 +1777,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25506400</v>
+        <v>26108900</v>
       </c>
       <c r="E48" s="3">
-        <v>50105500</v>
+        <v>51289000</v>
       </c>
       <c r="F48" s="3">
-        <v>25912900</v>
+        <v>26525000</v>
       </c>
       <c r="G48" s="3">
-        <v>23951700</v>
+        <v>24517500</v>
       </c>
       <c r="H48" s="3">
-        <v>25565000</v>
+        <v>26168900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1807,19 +1807,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18665900</v>
+        <v>19106900</v>
       </c>
       <c r="E49" s="3">
-        <v>37173900</v>
+        <v>38052000</v>
       </c>
       <c r="F49" s="3">
-        <v>18367800</v>
+        <v>18801600</v>
       </c>
       <c r="G49" s="3">
-        <v>17696200</v>
+        <v>18114200</v>
       </c>
       <c r="H49" s="3">
-        <v>3710800</v>
+        <v>3798400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1897,19 +1897,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>732700</v>
+        <v>750000</v>
       </c>
       <c r="E52" s="3">
-        <v>1164700</v>
+        <v>1192200</v>
       </c>
       <c r="F52" s="3">
-        <v>718700</v>
+        <v>735700</v>
       </c>
       <c r="G52" s="3">
-        <v>309700</v>
+        <v>317000</v>
       </c>
       <c r="H52" s="3">
-        <v>495700</v>
+        <v>507400</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1957,19 +1957,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63656400</v>
+        <v>65160000</v>
       </c>
       <c r="E54" s="3">
-        <v>60136800</v>
+        <v>61557200</v>
       </c>
       <c r="F54" s="3">
-        <v>59636000</v>
+        <v>61044600</v>
       </c>
       <c r="G54" s="3">
-        <v>57983200</v>
+        <v>59352800</v>
       </c>
       <c r="H54" s="3">
-        <v>44524000</v>
+        <v>45575700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2015,19 +2015,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7602500</v>
+        <v>7782100</v>
       </c>
       <c r="E57" s="3">
-        <v>16618100</v>
+        <v>17010700</v>
       </c>
       <c r="F57" s="3">
-        <v>5877100</v>
+        <v>6015900</v>
       </c>
       <c r="G57" s="3">
-        <v>4681800</v>
+        <v>4792400</v>
       </c>
       <c r="H57" s="3">
-        <v>7814000</v>
+        <v>7998600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2045,19 +2045,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3046900</v>
+        <v>3118800</v>
       </c>
       <c r="E58" s="3">
-        <v>537800</v>
+        <v>550500</v>
       </c>
       <c r="F58" s="3">
-        <v>2156100</v>
+        <v>2207000</v>
       </c>
       <c r="G58" s="3">
-        <v>2079700</v>
+        <v>2128800</v>
       </c>
       <c r="H58" s="3">
-        <v>2049100</v>
+        <v>2097500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2075,19 +2075,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5206800</v>
+        <v>5329800</v>
       </c>
       <c r="E59" s="3">
-        <v>3857300</v>
+        <v>3948400</v>
       </c>
       <c r="F59" s="3">
-        <v>3599900</v>
+        <v>3684900</v>
       </c>
       <c r="G59" s="3">
-        <v>3859900</v>
+        <v>3951000</v>
       </c>
       <c r="H59" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2105,19 +2105,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15856100</v>
+        <v>16230600</v>
       </c>
       <c r="E60" s="3">
-        <v>10806100</v>
+        <v>11061300</v>
       </c>
       <c r="F60" s="3">
-        <v>11633100</v>
+        <v>11907900</v>
       </c>
       <c r="G60" s="3">
-        <v>10621300</v>
+        <v>10872200</v>
       </c>
       <c r="H60" s="3">
-        <v>9909000</v>
+        <v>10143000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10774200</v>
+        <v>11028700</v>
       </c>
       <c r="E61" s="3">
-        <v>13938300</v>
+        <v>14267500</v>
       </c>
       <c r="F61" s="3">
-        <v>11993700</v>
+        <v>12277000</v>
       </c>
       <c r="G61" s="3">
-        <v>9673200</v>
+        <v>9901700</v>
       </c>
       <c r="H61" s="3">
-        <v>10332000</v>
+        <v>10576100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2165,19 +2165,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6826400</v>
+        <v>6987700</v>
       </c>
       <c r="E62" s="3">
-        <v>6844300</v>
+        <v>7005900</v>
       </c>
       <c r="F62" s="3">
-        <v>6867200</v>
+        <v>7029400</v>
       </c>
       <c r="G62" s="3">
-        <v>6563900</v>
+        <v>6719000</v>
       </c>
       <c r="H62" s="3">
-        <v>5902600</v>
+        <v>6042000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2285,19 +2285,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33516600</v>
+        <v>34308300</v>
       </c>
       <c r="E66" s="3">
-        <v>31637000</v>
+        <v>32384300</v>
       </c>
       <c r="F66" s="3">
-        <v>30494000</v>
+        <v>31214300</v>
       </c>
       <c r="G66" s="3">
-        <v>26858400</v>
+        <v>27492800</v>
       </c>
       <c r="H66" s="3">
-        <v>26143500</v>
+        <v>26761100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10439100</v>
+        <v>10685600</v>
       </c>
       <c r="E72" s="3">
-        <v>8418000</v>
+        <v>8616900</v>
       </c>
       <c r="F72" s="3">
-        <v>9048800</v>
+        <v>9262500</v>
       </c>
       <c r="G72" s="3">
-        <v>9869500</v>
+        <v>10102600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,19 +2569,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30139700</v>
+        <v>30851700</v>
       </c>
       <c r="E76" s="3">
-        <v>28499700</v>
+        <v>29172900</v>
       </c>
       <c r="F76" s="3">
-        <v>29142000</v>
+        <v>29830300</v>
       </c>
       <c r="G76" s="3">
-        <v>31124800</v>
+        <v>31860000</v>
       </c>
       <c r="H76" s="3">
-        <v>18380500</v>
+        <v>18814700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4017900</v>
+        <v>4112800</v>
       </c>
       <c r="E81" s="3">
-        <v>584900</v>
+        <v>598700</v>
       </c>
       <c r="F81" s="3">
-        <v>1264100</v>
+        <v>1294000</v>
       </c>
       <c r="G81" s="3">
-        <v>4553100</v>
+        <v>4660600</v>
       </c>
       <c r="H81" s="3">
-        <v>818100</v>
+        <v>837400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,16 +2708,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2486200</v>
+        <v>2544900</v>
       </c>
       <c r="E83" s="3">
-        <v>2534600</v>
+        <v>2594500</v>
       </c>
       <c r="F83" s="3">
-        <v>2292500</v>
+        <v>2346600</v>
       </c>
       <c r="G83" s="3">
-        <v>2028700</v>
+        <v>2076600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4951900</v>
+        <v>5068900</v>
       </c>
       <c r="E89" s="3">
-        <v>4234500</v>
+        <v>4334500</v>
       </c>
       <c r="F89" s="3">
-        <v>4670300</v>
+        <v>4780600</v>
       </c>
       <c r="G89" s="3">
-        <v>2614900</v>
+        <v>2676600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2272100</v>
+        <v>-2325700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1813300</v>
+        <v>-1856200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2202000</v>
+        <v>-2254000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1790400</v>
+        <v>-1832700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2302700</v>
+        <v>-2357100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1534300</v>
+        <v>-1570500</v>
       </c>
       <c r="F94" s="3">
-        <v>-3565500</v>
+        <v>-3649700</v>
       </c>
       <c r="G94" s="3">
-        <v>4953200</v>
+        <v>5070200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3066,16 +3066,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1331600</v>
+        <v>-1363100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1312500</v>
+        <v>-1343500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1302300</v>
+        <v>-1333100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1213100</v>
+        <v>-1241800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3826700</v>
+        <v>-3917100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1706300</v>
+        <v>-1746600</v>
       </c>
       <c r="F100" s="3">
-        <v>-3159000</v>
+        <v>-3233600</v>
       </c>
       <c r="G100" s="3">
-        <v>-4721300</v>
+        <v>-4832800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,16 +3216,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39500</v>
+        <v>-40400</v>
       </c>
       <c r="E101" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F101" s="3">
-        <v>-39500</v>
+        <v>-40400</v>
       </c>
       <c r="G101" s="3">
-        <v>-45900</v>
+        <v>-47000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1217000</v>
+        <v>-1245700</v>
       </c>
       <c r="E102" s="3">
-        <v>997800</v>
+        <v>1021300</v>
       </c>
       <c r="F102" s="3">
-        <v>-2093700</v>
+        <v>-2143100</v>
       </c>
       <c r="G102" s="3">
-        <v>2800900</v>
+        <v>2867100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>36147500</v>
+        <v>35815000</v>
       </c>
       <c r="E8" s="3">
-        <v>27272400</v>
+        <v>27021500</v>
       </c>
       <c r="F8" s="3">
-        <v>26197600</v>
+        <v>25956600</v>
       </c>
       <c r="G8" s="3">
-        <v>25613200</v>
+        <v>25377600</v>
       </c>
       <c r="H8" s="3">
-        <v>23699600</v>
+        <v>23481600</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>24319200</v>
+        <v>24095500</v>
       </c>
       <c r="E9" s="3">
-        <v>20550800</v>
+        <v>20361800</v>
       </c>
       <c r="F9" s="3">
-        <v>19268600</v>
+        <v>19091300</v>
       </c>
       <c r="G9" s="3">
-        <v>18788600</v>
+        <v>18615700</v>
       </c>
       <c r="H9" s="3">
-        <v>18285100</v>
+        <v>18116900</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11828300</v>
+        <v>11719500</v>
       </c>
       <c r="E10" s="3">
-        <v>6721600</v>
+        <v>6659700</v>
       </c>
       <c r="F10" s="3">
-        <v>6929000</v>
+        <v>6865200</v>
       </c>
       <c r="G10" s="3">
-        <v>6824600</v>
+        <v>6761800</v>
       </c>
       <c r="H10" s="3">
-        <v>5414600</v>
+        <v>5364800</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -879,16 +879,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>343100</v>
+        <v>339900</v>
       </c>
       <c r="E14" s="3">
-        <v>922200</v>
+        <v>913700</v>
       </c>
       <c r="F14" s="3">
-        <v>284400</v>
+        <v>281700</v>
       </c>
       <c r="G14" s="3">
-        <v>2581400</v>
+        <v>2557700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>928700</v>
+        <v>920200</v>
       </c>
       <c r="E15" s="3">
-        <v>585700</v>
+        <v>580300</v>
       </c>
       <c r="F15" s="3">
-        <v>500900</v>
+        <v>496300</v>
       </c>
       <c r="G15" s="3">
-        <v>383500</v>
+        <v>380000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30096400</v>
+        <v>29819500</v>
       </c>
       <c r="E17" s="3">
-        <v>26120600</v>
+        <v>25880300</v>
       </c>
       <c r="F17" s="3">
-        <v>23768800</v>
+        <v>23550100</v>
       </c>
       <c r="G17" s="3">
-        <v>25278000</v>
+        <v>25045400</v>
       </c>
       <c r="H17" s="3">
-        <v>22146100</v>
+        <v>21942400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6051100</v>
+        <v>5995400</v>
       </c>
       <c r="E18" s="3">
-        <v>1151800</v>
+        <v>1141200</v>
       </c>
       <c r="F18" s="3">
-        <v>2428800</v>
+        <v>2406400</v>
       </c>
       <c r="G18" s="3">
-        <v>335200</v>
+        <v>332100</v>
       </c>
       <c r="H18" s="3">
-        <v>1553500</v>
+        <v>1539200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1024,19 +1024,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="E20" s="3">
-        <v>-58700</v>
+        <v>-58200</v>
       </c>
       <c r="F20" s="3">
-        <v>-83500</v>
+        <v>-82700</v>
       </c>
       <c r="G20" s="3">
-        <v>140900</v>
+        <v>139600</v>
       </c>
       <c r="H20" s="3">
-        <v>-671800</v>
+        <v>-665600</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8596500</v>
+        <v>8535300</v>
       </c>
       <c r="E21" s="3">
-        <v>3677400</v>
+        <v>3661800</v>
       </c>
       <c r="F21" s="3">
-        <v>4682800</v>
+        <v>4656100</v>
       </c>
       <c r="G21" s="3">
-        <v>2544600</v>
+        <v>2535800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1084,16 +1084,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>624800</v>
+        <v>619100</v>
       </c>
       <c r="E22" s="3">
-        <v>594800</v>
+        <v>589300</v>
       </c>
       <c r="F22" s="3">
-        <v>639200</v>
+        <v>633300</v>
       </c>
       <c r="G22" s="3">
-        <v>637900</v>
+        <v>632000</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5436700</v>
+        <v>5386700</v>
       </c>
       <c r="E23" s="3">
-        <v>498300</v>
+        <v>493700</v>
       </c>
       <c r="F23" s="3">
-        <v>1706200</v>
+        <v>1690500</v>
       </c>
       <c r="G23" s="3">
-        <v>-161700</v>
+        <v>-160300</v>
       </c>
       <c r="H23" s="3">
-        <v>881800</v>
+        <v>873700</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1290100</v>
+        <v>1278200</v>
       </c>
       <c r="E24" s="3">
-        <v>-100400</v>
+        <v>-99500</v>
       </c>
       <c r="F24" s="3">
-        <v>412200</v>
+        <v>408400</v>
       </c>
       <c r="G24" s="3">
-        <v>-121300</v>
+        <v>-120200</v>
       </c>
       <c r="H24" s="3">
-        <v>26100</v>
+        <v>25800</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4146700</v>
+        <v>4108500</v>
       </c>
       <c r="E26" s="3">
-        <v>598700</v>
+        <v>593200</v>
       </c>
       <c r="F26" s="3">
-        <v>1294000</v>
+        <v>1282100</v>
       </c>
       <c r="G26" s="3">
-        <v>-40400</v>
+        <v>-40100</v>
       </c>
       <c r="H26" s="3">
-        <v>855700</v>
+        <v>847800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4112800</v>
+        <v>4074900</v>
       </c>
       <c r="E27" s="3">
-        <v>598700</v>
+        <v>593200</v>
       </c>
       <c r="F27" s="3">
-        <v>1294000</v>
+        <v>1282100</v>
       </c>
       <c r="G27" s="3">
-        <v>-40400</v>
+        <v>-40100</v>
       </c>
       <c r="H27" s="3">
-        <v>855700</v>
+        <v>847800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>4701100</v>
+        <v>4657800</v>
       </c>
       <c r="H29" s="3">
-        <v>-18300</v>
+        <v>-18100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1384,19 +1384,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10400</v>
+        <v>-10300</v>
       </c>
       <c r="E32" s="3">
-        <v>58700</v>
+        <v>58200</v>
       </c>
       <c r="F32" s="3">
-        <v>83500</v>
+        <v>82700</v>
       </c>
       <c r="G32" s="3">
-        <v>-140900</v>
+        <v>-139600</v>
       </c>
       <c r="H32" s="3">
-        <v>671800</v>
+        <v>665600</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4112800</v>
+        <v>4074900</v>
       </c>
       <c r="E33" s="3">
-        <v>598700</v>
+        <v>593200</v>
       </c>
       <c r="F33" s="3">
-        <v>1294000</v>
+        <v>1282100</v>
       </c>
       <c r="G33" s="3">
-        <v>4660600</v>
+        <v>4617700</v>
       </c>
       <c r="H33" s="3">
-        <v>837400</v>
+        <v>829700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4112800</v>
+        <v>4074900</v>
       </c>
       <c r="E35" s="3">
-        <v>598700</v>
+        <v>593200</v>
       </c>
       <c r="F35" s="3">
-        <v>1294000</v>
+        <v>1282100</v>
       </c>
       <c r="G35" s="3">
-        <v>4660600</v>
+        <v>4617700</v>
       </c>
       <c r="H35" s="3">
-        <v>837400</v>
+        <v>829700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,19 +1567,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>558300</v>
+        <v>553100</v>
       </c>
       <c r="E41" s="3">
-        <v>3690100</v>
+        <v>3656200</v>
       </c>
       <c r="F41" s="3">
-        <v>693900</v>
+        <v>687600</v>
       </c>
       <c r="G41" s="3">
-        <v>1964400</v>
+        <v>1946400</v>
       </c>
       <c r="H41" s="3">
-        <v>759200</v>
+        <v>752200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>92600</v>
+        <v>91800</v>
       </c>
       <c r="E42" s="3">
-        <v>103000</v>
+        <v>102100</v>
       </c>
       <c r="F42" s="3">
-        <v>181300</v>
+        <v>179600</v>
       </c>
       <c r="G42" s="3">
-        <v>1054000</v>
+        <v>1044300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6999400</v>
+        <v>6935000</v>
       </c>
       <c r="E43" s="3">
-        <v>4671100</v>
+        <v>4628100</v>
       </c>
       <c r="F43" s="3">
-        <v>4620200</v>
+        <v>4577700</v>
       </c>
       <c r="G43" s="3">
-        <v>4359300</v>
+        <v>4319200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1657,19 +1657,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8254200</v>
+        <v>8178300</v>
       </c>
       <c r="E44" s="3">
-        <v>12861400</v>
+        <v>12743100</v>
       </c>
       <c r="F44" s="3">
-        <v>6489400</v>
+        <v>6429700</v>
       </c>
       <c r="G44" s="3">
-        <v>6413700</v>
+        <v>6354700</v>
       </c>
       <c r="H44" s="3">
-        <v>5359800</v>
+        <v>5310500</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1687,19 +1687,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2156200</v>
+        <v>2136300</v>
       </c>
       <c r="E45" s="3">
-        <v>1963100</v>
+        <v>1945100</v>
       </c>
       <c r="F45" s="3">
-        <v>1926600</v>
+        <v>1908900</v>
       </c>
       <c r="G45" s="3">
-        <v>1420500</v>
+        <v>1407400</v>
       </c>
       <c r="H45" s="3">
-        <v>4120600</v>
+        <v>4082700</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1717,19 +1717,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18060700</v>
+        <v>17894600</v>
       </c>
       <c r="E46" s="3">
-        <v>14961500</v>
+        <v>14823800</v>
       </c>
       <c r="F46" s="3">
-        <v>13911400</v>
+        <v>13783400</v>
       </c>
       <c r="G46" s="3">
-        <v>15211900</v>
+        <v>15072000</v>
       </c>
       <c r="H46" s="3">
-        <v>14039300</v>
+        <v>13910100</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1747,19 +1747,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1133500</v>
+        <v>1123100</v>
       </c>
       <c r="E47" s="3">
-        <v>1466100</v>
+        <v>1452700</v>
       </c>
       <c r="F47" s="3">
-        <v>1070900</v>
+        <v>1061100</v>
       </c>
       <c r="G47" s="3">
-        <v>1192200</v>
+        <v>1181300</v>
       </c>
       <c r="H47" s="3">
-        <v>1061800</v>
+        <v>1052000</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1777,19 +1777,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26108900</v>
+        <v>25868700</v>
       </c>
       <c r="E48" s="3">
-        <v>51289000</v>
+        <v>50817200</v>
       </c>
       <c r="F48" s="3">
-        <v>26525000</v>
+        <v>26281000</v>
       </c>
       <c r="G48" s="3">
-        <v>24517500</v>
+        <v>24292000</v>
       </c>
       <c r="H48" s="3">
-        <v>26168900</v>
+        <v>25928100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1807,19 +1807,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19106900</v>
+        <v>18931100</v>
       </c>
       <c r="E49" s="3">
-        <v>38052000</v>
+        <v>37701900</v>
       </c>
       <c r="F49" s="3">
-        <v>18801600</v>
+        <v>18628700</v>
       </c>
       <c r="G49" s="3">
-        <v>18114200</v>
+        <v>17947600</v>
       </c>
       <c r="H49" s="3">
-        <v>3798400</v>
+        <v>3763500</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1897,19 +1897,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>750000</v>
+        <v>743100</v>
       </c>
       <c r="E52" s="3">
-        <v>1192200</v>
+        <v>1181300</v>
       </c>
       <c r="F52" s="3">
-        <v>735700</v>
+        <v>728900</v>
       </c>
       <c r="G52" s="3">
-        <v>317000</v>
+        <v>314100</v>
       </c>
       <c r="H52" s="3">
-        <v>507400</v>
+        <v>502700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1957,19 +1957,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>65160000</v>
+        <v>64560500</v>
       </c>
       <c r="E54" s="3">
-        <v>61557200</v>
+        <v>60990900</v>
       </c>
       <c r="F54" s="3">
-        <v>61044600</v>
+        <v>60483000</v>
       </c>
       <c r="G54" s="3">
-        <v>59352800</v>
+        <v>58806800</v>
       </c>
       <c r="H54" s="3">
-        <v>45575700</v>
+        <v>45156500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2015,19 +2015,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7782100</v>
+        <v>7710500</v>
       </c>
       <c r="E57" s="3">
-        <v>17010700</v>
+        <v>16854200</v>
       </c>
       <c r="F57" s="3">
-        <v>6015900</v>
+        <v>5960500</v>
       </c>
       <c r="G57" s="3">
-        <v>4792400</v>
+        <v>4748300</v>
       </c>
       <c r="H57" s="3">
-        <v>7998600</v>
+        <v>7925000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2045,19 +2045,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3118800</v>
+        <v>3090100</v>
       </c>
       <c r="E58" s="3">
-        <v>550500</v>
+        <v>545400</v>
       </c>
       <c r="F58" s="3">
-        <v>2207000</v>
+        <v>2186700</v>
       </c>
       <c r="G58" s="3">
-        <v>2128800</v>
+        <v>2109200</v>
       </c>
       <c r="H58" s="3">
-        <v>2097500</v>
+        <v>2078200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2075,19 +2075,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5329800</v>
+        <v>5280700</v>
       </c>
       <c r="E59" s="3">
-        <v>3948400</v>
+        <v>3912100</v>
       </c>
       <c r="F59" s="3">
-        <v>3684900</v>
+        <v>3651000</v>
       </c>
       <c r="G59" s="3">
-        <v>3951000</v>
+        <v>3914700</v>
       </c>
       <c r="H59" s="3">
-        <v>47000</v>
+        <v>46500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2105,19 +2105,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16230600</v>
+        <v>16081300</v>
       </c>
       <c r="E60" s="3">
-        <v>11061300</v>
+        <v>10959600</v>
       </c>
       <c r="F60" s="3">
-        <v>11907900</v>
+        <v>11798300</v>
       </c>
       <c r="G60" s="3">
-        <v>10872200</v>
+        <v>10772200</v>
       </c>
       <c r="H60" s="3">
-        <v>10143000</v>
+        <v>10049700</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11028700</v>
+        <v>10927200</v>
       </c>
       <c r="E61" s="3">
-        <v>14267500</v>
+        <v>14136300</v>
       </c>
       <c r="F61" s="3">
-        <v>12277000</v>
+        <v>12164100</v>
       </c>
       <c r="G61" s="3">
-        <v>9901700</v>
+        <v>9810600</v>
       </c>
       <c r="H61" s="3">
-        <v>10576100</v>
+        <v>10478800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2165,19 +2165,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6987700</v>
+        <v>6923400</v>
       </c>
       <c r="E62" s="3">
-        <v>7005900</v>
+        <v>6941500</v>
       </c>
       <c r="F62" s="3">
-        <v>7029400</v>
+        <v>6964700</v>
       </c>
       <c r="G62" s="3">
-        <v>6719000</v>
+        <v>6657200</v>
       </c>
       <c r="H62" s="3">
-        <v>6042000</v>
+        <v>5986400</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2285,19 +2285,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34308300</v>
+        <v>33992700</v>
       </c>
       <c r="E66" s="3">
-        <v>32384300</v>
+        <v>32086400</v>
       </c>
       <c r="F66" s="3">
-        <v>31214300</v>
+        <v>30927100</v>
       </c>
       <c r="G66" s="3">
-        <v>27492800</v>
+        <v>27239900</v>
       </c>
       <c r="H66" s="3">
-        <v>26761100</v>
+        <v>26514900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10685600</v>
+        <v>10587300</v>
       </c>
       <c r="E72" s="3">
-        <v>8616900</v>
+        <v>8537600</v>
       </c>
       <c r="F72" s="3">
-        <v>9262500</v>
+        <v>9177300</v>
       </c>
       <c r="G72" s="3">
-        <v>10102600</v>
+        <v>10009600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,19 +2569,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30851700</v>
+        <v>30567800</v>
       </c>
       <c r="E76" s="3">
-        <v>29172900</v>
+        <v>28904500</v>
       </c>
       <c r="F76" s="3">
-        <v>29830300</v>
+        <v>29555900</v>
       </c>
       <c r="G76" s="3">
-        <v>31860000</v>
+        <v>31566900</v>
       </c>
       <c r="H76" s="3">
-        <v>18814700</v>
+        <v>18641600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4112800</v>
+        <v>4074900</v>
       </c>
       <c r="E81" s="3">
-        <v>598700</v>
+        <v>593200</v>
       </c>
       <c r="F81" s="3">
-        <v>1294000</v>
+        <v>1282100</v>
       </c>
       <c r="G81" s="3">
-        <v>4660600</v>
+        <v>4617700</v>
       </c>
       <c r="H81" s="3">
-        <v>837400</v>
+        <v>829700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,16 +2708,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2544900</v>
+        <v>2521500</v>
       </c>
       <c r="E83" s="3">
-        <v>2594500</v>
+        <v>2570600</v>
       </c>
       <c r="F83" s="3">
-        <v>2346600</v>
+        <v>2325000</v>
       </c>
       <c r="G83" s="3">
-        <v>2076600</v>
+        <v>2057500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5068900</v>
+        <v>5022300</v>
       </c>
       <c r="E89" s="3">
-        <v>4334500</v>
+        <v>4294600</v>
       </c>
       <c r="F89" s="3">
-        <v>4780600</v>
+        <v>4736600</v>
       </c>
       <c r="G89" s="3">
-        <v>2676600</v>
+        <v>2652000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2325700</v>
+        <v>-2304300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1856200</v>
+        <v>-1839100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2254000</v>
+        <v>-2233300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1832700</v>
+        <v>-1815800</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2357100</v>
+        <v>-2335400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1570500</v>
+        <v>-1556000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3649700</v>
+        <v>-3616100</v>
       </c>
       <c r="G94" s="3">
-        <v>5070200</v>
+        <v>5023600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3066,16 +3066,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1363100</v>
+        <v>-1350600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1343500</v>
+        <v>-1331200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1333100</v>
+        <v>-1320800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1241800</v>
+        <v>-1230400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3917100</v>
+        <v>-3881100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1746600</v>
+        <v>-1730500</v>
       </c>
       <c r="F100" s="3">
-        <v>-3233600</v>
+        <v>-3203900</v>
       </c>
       <c r="G100" s="3">
-        <v>-4832800</v>
+        <v>-4788300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,16 +3216,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-40400</v>
+        <v>-40100</v>
       </c>
       <c r="E101" s="3">
         <v>3900</v>
       </c>
       <c r="F101" s="3">
-        <v>-40400</v>
+        <v>-40100</v>
       </c>
       <c r="G101" s="3">
-        <v>-47000</v>
+        <v>-46500</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1245700</v>
+        <v>-1234200</v>
       </c>
       <c r="E102" s="3">
-        <v>1021300</v>
+        <v>1011900</v>
       </c>
       <c r="F102" s="3">
-        <v>-2143100</v>
+        <v>-2123400</v>
       </c>
       <c r="G102" s="3">
-        <v>2867100</v>
+        <v>2840700</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
@@ -715,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>35815000</v>
+        <v>36906800</v>
       </c>
       <c r="E8" s="3">
-        <v>27021500</v>
+        <v>27845300</v>
       </c>
       <c r="F8" s="3">
-        <v>25956600</v>
+        <v>26747900</v>
       </c>
       <c r="G8" s="3">
-        <v>25377600</v>
+        <v>26151200</v>
       </c>
       <c r="H8" s="3">
-        <v>23481600</v>
+        <v>24197500</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -745,19 +745,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>24095500</v>
+        <v>24830100</v>
       </c>
       <c r="E9" s="3">
-        <v>20361800</v>
+        <v>20982500</v>
       </c>
       <c r="F9" s="3">
-        <v>19091300</v>
+        <v>19673300</v>
       </c>
       <c r="G9" s="3">
-        <v>18615700</v>
+        <v>19183200</v>
       </c>
       <c r="H9" s="3">
-        <v>18116900</v>
+        <v>18669200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11719500</v>
+        <v>12076800</v>
       </c>
       <c r="E10" s="3">
-        <v>6659700</v>
+        <v>6862800</v>
       </c>
       <c r="F10" s="3">
-        <v>6865200</v>
+        <v>7074500</v>
       </c>
       <c r="G10" s="3">
-        <v>6761800</v>
+        <v>6968000</v>
       </c>
       <c r="H10" s="3">
-        <v>5364800</v>
+        <v>5528300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -879,16 +879,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>339900</v>
+        <v>350300</v>
       </c>
       <c r="E14" s="3">
-        <v>913700</v>
+        <v>941600</v>
       </c>
       <c r="F14" s="3">
-        <v>281700</v>
+        <v>290300</v>
       </c>
       <c r="G14" s="3">
-        <v>2557700</v>
+        <v>2635600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>920200</v>
+        <v>948200</v>
       </c>
       <c r="E15" s="3">
-        <v>580300</v>
+        <v>598000</v>
       </c>
       <c r="F15" s="3">
-        <v>496300</v>
+        <v>511400</v>
       </c>
       <c r="G15" s="3">
-        <v>380000</v>
+        <v>391500</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -950,19 +950,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>29819500</v>
+        <v>30728600</v>
       </c>
       <c r="E17" s="3">
-        <v>25880300</v>
+        <v>26669300</v>
       </c>
       <c r="F17" s="3">
-        <v>23550100</v>
+        <v>24268100</v>
       </c>
       <c r="G17" s="3">
-        <v>25045400</v>
+        <v>25809000</v>
       </c>
       <c r="H17" s="3">
-        <v>21942400</v>
+        <v>22611300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5995400</v>
+        <v>6178200</v>
       </c>
       <c r="E18" s="3">
-        <v>1141200</v>
+        <v>1176000</v>
       </c>
       <c r="F18" s="3">
-        <v>2406400</v>
+        <v>2479800</v>
       </c>
       <c r="G18" s="3">
-        <v>332100</v>
+        <v>342300</v>
       </c>
       <c r="H18" s="3">
-        <v>1539200</v>
+        <v>1586200</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1024,19 +1024,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="E20" s="3">
-        <v>-58200</v>
+        <v>-59900</v>
       </c>
       <c r="F20" s="3">
-        <v>-82700</v>
+        <v>-85200</v>
       </c>
       <c r="G20" s="3">
-        <v>139600</v>
+        <v>143800</v>
       </c>
       <c r="H20" s="3">
-        <v>-665600</v>
+        <v>-685900</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8535300</v>
+        <v>8827800</v>
       </c>
       <c r="E21" s="3">
-        <v>3661800</v>
+        <v>3806400</v>
       </c>
       <c r="F21" s="3">
-        <v>4656100</v>
+        <v>4827900</v>
       </c>
       <c r="G21" s="3">
-        <v>2535800</v>
+        <v>2639400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1084,16 +1084,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>619100</v>
+        <v>637900</v>
       </c>
       <c r="E22" s="3">
-        <v>589300</v>
+        <v>607300</v>
       </c>
       <c r="F22" s="3">
-        <v>633300</v>
+        <v>652600</v>
       </c>
       <c r="G22" s="3">
-        <v>632000</v>
+        <v>651300</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1114,19 +1114,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5386700</v>
+        <v>5550900</v>
       </c>
       <c r="E23" s="3">
-        <v>493700</v>
+        <v>508700</v>
       </c>
       <c r="F23" s="3">
-        <v>1690500</v>
+        <v>1742000</v>
       </c>
       <c r="G23" s="3">
-        <v>-160300</v>
+        <v>-165100</v>
       </c>
       <c r="H23" s="3">
-        <v>873700</v>
+        <v>900300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1144,19 +1144,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1278200</v>
+        <v>1317200</v>
       </c>
       <c r="E24" s="3">
-        <v>-99500</v>
+        <v>-102500</v>
       </c>
       <c r="F24" s="3">
-        <v>408400</v>
+        <v>420800</v>
       </c>
       <c r="G24" s="3">
-        <v>-120200</v>
+        <v>-123900</v>
       </c>
       <c r="H24" s="3">
-        <v>25800</v>
+        <v>26600</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1204,19 +1204,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4108500</v>
+        <v>4233800</v>
       </c>
       <c r="E26" s="3">
-        <v>593200</v>
+        <v>611300</v>
       </c>
       <c r="F26" s="3">
-        <v>1282100</v>
+        <v>1321100</v>
       </c>
       <c r="G26" s="3">
-        <v>-40100</v>
+        <v>-41300</v>
       </c>
       <c r="H26" s="3">
-        <v>847800</v>
+        <v>873700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1234,19 +1234,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4074900</v>
+        <v>4199200</v>
       </c>
       <c r="E27" s="3">
-        <v>593200</v>
+        <v>611300</v>
       </c>
       <c r="F27" s="3">
-        <v>1282100</v>
+        <v>1321100</v>
       </c>
       <c r="G27" s="3">
-        <v>-40100</v>
+        <v>-41300</v>
       </c>
       <c r="H27" s="3">
-        <v>847800</v>
+        <v>873700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>4657800</v>
+        <v>4799800</v>
       </c>
       <c r="H29" s="3">
-        <v>-18100</v>
+        <v>-18600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1384,19 +1384,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10300</v>
+        <v>-10700</v>
       </c>
       <c r="E32" s="3">
-        <v>58200</v>
+        <v>59900</v>
       </c>
       <c r="F32" s="3">
-        <v>82700</v>
+        <v>85200</v>
       </c>
       <c r="G32" s="3">
-        <v>-139600</v>
+        <v>-143800</v>
       </c>
       <c r="H32" s="3">
-        <v>665600</v>
+        <v>685900</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1414,19 +1414,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4074900</v>
+        <v>4199200</v>
       </c>
       <c r="E33" s="3">
-        <v>593200</v>
+        <v>611300</v>
       </c>
       <c r="F33" s="3">
-        <v>1282100</v>
+        <v>1321100</v>
       </c>
       <c r="G33" s="3">
-        <v>4617700</v>
+        <v>4758500</v>
       </c>
       <c r="H33" s="3">
-        <v>829700</v>
+        <v>855000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1474,19 +1474,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4074900</v>
+        <v>4199200</v>
       </c>
       <c r="E35" s="3">
-        <v>593200</v>
+        <v>611300</v>
       </c>
       <c r="F35" s="3">
-        <v>1282100</v>
+        <v>1321100</v>
       </c>
       <c r="G35" s="3">
-        <v>4617700</v>
+        <v>4758500</v>
       </c>
       <c r="H35" s="3">
-        <v>829700</v>
+        <v>855000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1567,19 +1567,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>553100</v>
+        <v>570000</v>
       </c>
       <c r="E41" s="3">
-        <v>3656200</v>
+        <v>3767700</v>
       </c>
       <c r="F41" s="3">
-        <v>687600</v>
+        <v>708500</v>
       </c>
       <c r="G41" s="3">
-        <v>1946400</v>
+        <v>2005700</v>
       </c>
       <c r="H41" s="3">
-        <v>752200</v>
+        <v>775100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>91800</v>
+        <v>94600</v>
       </c>
       <c r="E42" s="3">
-        <v>102100</v>
+        <v>105200</v>
       </c>
       <c r="F42" s="3">
-        <v>179600</v>
+        <v>185100</v>
       </c>
       <c r="G42" s="3">
-        <v>1044300</v>
+        <v>1076100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1627,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6935000</v>
+        <v>7146400</v>
       </c>
       <c r="E43" s="3">
-        <v>4628100</v>
+        <v>9427800</v>
       </c>
       <c r="F43" s="3">
-        <v>4577700</v>
+        <v>4717200</v>
       </c>
       <c r="G43" s="3">
-        <v>4319200</v>
+        <v>4450900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1657,19 +1657,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8178300</v>
+        <v>8427600</v>
       </c>
       <c r="E44" s="3">
-        <v>12743100</v>
+        <v>13131500</v>
       </c>
       <c r="F44" s="3">
-        <v>6429700</v>
+        <v>6625700</v>
       </c>
       <c r="G44" s="3">
-        <v>6354700</v>
+        <v>6548500</v>
       </c>
       <c r="H44" s="3">
-        <v>5310500</v>
+        <v>5472400</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1687,19 +1687,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2136300</v>
+        <v>2201500</v>
       </c>
       <c r="E45" s="3">
-        <v>1945100</v>
+        <v>2004400</v>
       </c>
       <c r="F45" s="3">
-        <v>1908900</v>
+        <v>1967100</v>
       </c>
       <c r="G45" s="3">
-        <v>1407400</v>
+        <v>1450300</v>
       </c>
       <c r="H45" s="3">
-        <v>4082700</v>
+        <v>4207200</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1717,19 +1717,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17894600</v>
+        <v>18440100</v>
       </c>
       <c r="E46" s="3">
-        <v>14823800</v>
+        <v>15275700</v>
       </c>
       <c r="F46" s="3">
-        <v>13783400</v>
+        <v>14203600</v>
       </c>
       <c r="G46" s="3">
-        <v>15072000</v>
+        <v>15531500</v>
       </c>
       <c r="H46" s="3">
-        <v>13910100</v>
+        <v>14334200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1747,19 +1747,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1123100</v>
+        <v>1157300</v>
       </c>
       <c r="E47" s="3">
-        <v>1452700</v>
+        <v>1496900</v>
       </c>
       <c r="F47" s="3">
-        <v>1061100</v>
+        <v>1093400</v>
       </c>
       <c r="G47" s="3">
-        <v>1181300</v>
+        <v>1217300</v>
       </c>
       <c r="H47" s="3">
-        <v>1052000</v>
+        <v>1084100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1777,19 +1777,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25868700</v>
+        <v>26657300</v>
       </c>
       <c r="E48" s="3">
-        <v>50817200</v>
+        <v>52366400</v>
       </c>
       <c r="F48" s="3">
-        <v>26281000</v>
+        <v>27082200</v>
       </c>
       <c r="G48" s="3">
-        <v>24292000</v>
+        <v>25032500</v>
       </c>
       <c r="H48" s="3">
-        <v>25928100</v>
+        <v>26718600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1807,19 +1807,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18931100</v>
+        <v>19508200</v>
       </c>
       <c r="E49" s="3">
-        <v>37701900</v>
+        <v>38851300</v>
       </c>
       <c r="F49" s="3">
-        <v>18628700</v>
+        <v>19196600</v>
       </c>
       <c r="G49" s="3">
-        <v>17947600</v>
+        <v>18494700</v>
       </c>
       <c r="H49" s="3">
-        <v>3763500</v>
+        <v>3878200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1897,19 +1897,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>743100</v>
+        <v>765800</v>
       </c>
       <c r="E52" s="3">
-        <v>1181300</v>
+        <v>1217300</v>
       </c>
       <c r="F52" s="3">
-        <v>728900</v>
+        <v>751100</v>
       </c>
       <c r="G52" s="3">
-        <v>314100</v>
+        <v>323600</v>
       </c>
       <c r="H52" s="3">
-        <v>502700</v>
+        <v>518100</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -1957,19 +1957,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64560500</v>
+        <v>66528700</v>
       </c>
       <c r="E54" s="3">
-        <v>60990900</v>
+        <v>62850300</v>
       </c>
       <c r="F54" s="3">
-        <v>60483000</v>
+        <v>62326900</v>
       </c>
       <c r="G54" s="3">
-        <v>58806800</v>
+        <v>60599600</v>
       </c>
       <c r="H54" s="3">
-        <v>45156500</v>
+        <v>46533100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2015,19 +2015,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7710500</v>
+        <v>7945500</v>
       </c>
       <c r="E57" s="3">
-        <v>16854200</v>
+        <v>17368000</v>
       </c>
       <c r="F57" s="3">
-        <v>5960500</v>
+        <v>6142300</v>
       </c>
       <c r="G57" s="3">
-        <v>4748300</v>
+        <v>4893000</v>
       </c>
       <c r="H57" s="3">
-        <v>7925000</v>
+        <v>8166600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2045,19 +2045,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3090100</v>
+        <v>3184300</v>
       </c>
       <c r="E58" s="3">
-        <v>545400</v>
+        <v>562000</v>
       </c>
       <c r="F58" s="3">
-        <v>2186700</v>
+        <v>2253400</v>
       </c>
       <c r="G58" s="3">
-        <v>2109200</v>
+        <v>2173500</v>
       </c>
       <c r="H58" s="3">
-        <v>2078200</v>
+        <v>2141500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2075,19 +2075,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5280700</v>
+        <v>5441700</v>
       </c>
       <c r="E59" s="3">
-        <v>3912100</v>
+        <v>4031400</v>
       </c>
       <c r="F59" s="3">
-        <v>3651000</v>
+        <v>3762300</v>
       </c>
       <c r="G59" s="3">
-        <v>3914700</v>
+        <v>4034000</v>
       </c>
       <c r="H59" s="3">
-        <v>46500</v>
+        <v>47900</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2105,19 +2105,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16081300</v>
+        <v>16571600</v>
       </c>
       <c r="E60" s="3">
-        <v>10959600</v>
+        <v>11293700</v>
       </c>
       <c r="F60" s="3">
-        <v>11798300</v>
+        <v>12158000</v>
       </c>
       <c r="G60" s="3">
-        <v>10772200</v>
+        <v>11100600</v>
       </c>
       <c r="H60" s="3">
-        <v>10049700</v>
+        <v>10356100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2135,19 +2135,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10927200</v>
+        <v>11260400</v>
       </c>
       <c r="E61" s="3">
-        <v>14136300</v>
+        <v>14567200</v>
       </c>
       <c r="F61" s="3">
-        <v>12164100</v>
+        <v>12534900</v>
       </c>
       <c r="G61" s="3">
-        <v>9810600</v>
+        <v>10109700</v>
       </c>
       <c r="H61" s="3">
-        <v>10478800</v>
+        <v>10798200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2165,19 +2165,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6923400</v>
+        <v>7134500</v>
       </c>
       <c r="E62" s="3">
-        <v>6941500</v>
+        <v>7153100</v>
       </c>
       <c r="F62" s="3">
-        <v>6964700</v>
+        <v>7177100</v>
       </c>
       <c r="G62" s="3">
-        <v>6657200</v>
+        <v>6860100</v>
       </c>
       <c r="H62" s="3">
-        <v>5986400</v>
+        <v>6168900</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2285,19 +2285,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33992700</v>
+        <v>35029000</v>
       </c>
       <c r="E66" s="3">
-        <v>32086400</v>
+        <v>33064600</v>
       </c>
       <c r="F66" s="3">
-        <v>30927100</v>
+        <v>31870000</v>
       </c>
       <c r="G66" s="3">
-        <v>27239900</v>
+        <v>28070300</v>
       </c>
       <c r="H66" s="3">
-        <v>26514900</v>
+        <v>27323200</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2449,16 +2449,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10587300</v>
+        <v>10910100</v>
       </c>
       <c r="E72" s="3">
-        <v>8537600</v>
+        <v>8797900</v>
       </c>
       <c r="F72" s="3">
-        <v>9177300</v>
+        <v>9457100</v>
       </c>
       <c r="G72" s="3">
-        <v>10009600</v>
+        <v>10314800</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2569,19 +2569,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30567800</v>
+        <v>31499700</v>
       </c>
       <c r="E76" s="3">
-        <v>28904500</v>
+        <v>29785700</v>
       </c>
       <c r="F76" s="3">
-        <v>29555900</v>
+        <v>30456900</v>
       </c>
       <c r="G76" s="3">
-        <v>31566900</v>
+        <v>32529200</v>
       </c>
       <c r="H76" s="3">
-        <v>18641600</v>
+        <v>19209900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2664,19 +2664,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4074900</v>
+        <v>4199200</v>
       </c>
       <c r="E81" s="3">
-        <v>593200</v>
+        <v>611300</v>
       </c>
       <c r="F81" s="3">
-        <v>1282100</v>
+        <v>1321100</v>
       </c>
       <c r="G81" s="3">
-        <v>4617700</v>
+        <v>4758500</v>
       </c>
       <c r="H81" s="3">
-        <v>829700</v>
+        <v>855000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2708,16 +2708,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2521500</v>
+        <v>2598300</v>
       </c>
       <c r="E83" s="3">
-        <v>2570600</v>
+        <v>2649000</v>
       </c>
       <c r="F83" s="3">
-        <v>2325000</v>
+        <v>2395900</v>
       </c>
       <c r="G83" s="3">
-        <v>2057500</v>
+        <v>2120200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5022300</v>
+        <v>5175400</v>
       </c>
       <c r="E89" s="3">
-        <v>4294600</v>
+        <v>4425600</v>
       </c>
       <c r="F89" s="3">
-        <v>4736600</v>
+        <v>4881000</v>
       </c>
       <c r="G89" s="3">
-        <v>2652000</v>
+        <v>2732900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,16 +2932,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2304300</v>
+        <v>-2374600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1839100</v>
+        <v>-1895200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2233300</v>
+        <v>-2301400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1815800</v>
+        <v>-1871200</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2335400</v>
+        <v>-2406600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1556000</v>
+        <v>-1603500</v>
       </c>
       <c r="F94" s="3">
-        <v>-3616100</v>
+        <v>-3726400</v>
       </c>
       <c r="G94" s="3">
-        <v>5023600</v>
+        <v>5176700</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3066,16 +3066,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1350600</v>
+        <v>-1391700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1331200</v>
+        <v>-1371800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1320800</v>
+        <v>-1361100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1230400</v>
+        <v>-1267900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3881100</v>
+        <v>-3999400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1730500</v>
+        <v>-1783300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3203900</v>
+        <v>-3301500</v>
       </c>
       <c r="G100" s="3">
-        <v>-4788300</v>
+        <v>-4934300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,16 +3216,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-40100</v>
+        <v>-41300</v>
       </c>
       <c r="E101" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F101" s="3">
-        <v>-40100</v>
+        <v>-41300</v>
       </c>
       <c r="G101" s="3">
-        <v>-46500</v>
+        <v>-47900</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1234200</v>
+        <v>-1271900</v>
       </c>
       <c r="E102" s="3">
-        <v>1011900</v>
+        <v>1042800</v>
       </c>
       <c r="F102" s="3">
-        <v>-2123400</v>
+        <v>-2188100</v>
       </c>
       <c r="G102" s="3">
-        <v>2840700</v>
+        <v>2927300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,75 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>36906800</v>
+        <v>52382200</v>
       </c>
       <c r="E8" s="3">
-        <v>27845300</v>
+        <v>38317400</v>
       </c>
       <c r="F8" s="3">
-        <v>26747900</v>
+        <v>28909500</v>
       </c>
       <c r="G8" s="3">
-        <v>26151200</v>
+        <v>27770100</v>
       </c>
       <c r="H8" s="3">
-        <v>24197500</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>27150700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>25122300</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -738,29 +741,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>24830100</v>
+        <v>32312300</v>
       </c>
       <c r="E9" s="3">
-        <v>20982500</v>
+        <v>25779100</v>
       </c>
       <c r="F9" s="3">
-        <v>19673300</v>
+        <v>21784400</v>
       </c>
       <c r="G9" s="3">
-        <v>19183200</v>
+        <v>20425200</v>
       </c>
       <c r="H9" s="3">
-        <v>18669200</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>19916400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>19382700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -768,29 +774,32 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>12076800</v>
+        <v>20069900</v>
       </c>
       <c r="E10" s="3">
-        <v>6862800</v>
+        <v>12538300</v>
       </c>
       <c r="F10" s="3">
-        <v>7074500</v>
+        <v>7125100</v>
       </c>
       <c r="G10" s="3">
-        <v>6968000</v>
+        <v>7344900</v>
       </c>
       <c r="H10" s="3">
-        <v>5528300</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>7234300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5739600</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,26 +888,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>350300</v>
+        <v>-1003800</v>
       </c>
       <c r="E14" s="3">
-        <v>941600</v>
+        <v>363700</v>
       </c>
       <c r="F14" s="3">
-        <v>290300</v>
+        <v>977600</v>
       </c>
       <c r="G14" s="3">
-        <v>2635600</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>301400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2736400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -902,26 +921,29 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>948200</v>
+        <v>1061900</v>
       </c>
       <c r="E15" s="3">
-        <v>598000</v>
+        <v>984500</v>
       </c>
       <c r="F15" s="3">
-        <v>511400</v>
+        <v>620800</v>
       </c>
       <c r="G15" s="3">
-        <v>391500</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+        <v>531000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>406500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,28 +969,29 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30728600</v>
+        <v>37436600</v>
       </c>
       <c r="E17" s="3">
-        <v>26669300</v>
+        <v>31903000</v>
       </c>
       <c r="F17" s="3">
-        <v>24268100</v>
+        <v>27688600</v>
       </c>
       <c r="G17" s="3">
-        <v>25809000</v>
+        <v>25195600</v>
       </c>
       <c r="H17" s="3">
-        <v>22611300</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>26795300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>23475500</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -973,29 +999,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6178200</v>
+        <v>14945600</v>
       </c>
       <c r="E18" s="3">
-        <v>1176000</v>
+        <v>6414300</v>
       </c>
       <c r="F18" s="3">
-        <v>2479800</v>
+        <v>1220900</v>
       </c>
       <c r="G18" s="3">
-        <v>342300</v>
+        <v>2574600</v>
       </c>
       <c r="H18" s="3">
-        <v>1586200</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>355400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1646800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,28 +1050,29 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10700</v>
+        <v>-109200</v>
       </c>
       <c r="E20" s="3">
-        <v>-59900</v>
+        <v>11100</v>
       </c>
       <c r="F20" s="3">
-        <v>-85200</v>
+        <v>-62200</v>
       </c>
       <c r="G20" s="3">
-        <v>143800</v>
+        <v>-88500</v>
       </c>
       <c r="H20" s="3">
-        <v>-685900</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>149300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-712100</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1047,26 +1080,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8827800</v>
+        <v>17613700</v>
       </c>
       <c r="E21" s="3">
-        <v>3806400</v>
+        <v>9118600</v>
       </c>
       <c r="F21" s="3">
-        <v>4827900</v>
+        <v>3904300</v>
       </c>
       <c r="G21" s="3">
-        <v>2639400</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>4969400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2702300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1077,26 +1113,29 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>637900</v>
+        <v>669200</v>
       </c>
       <c r="E22" s="3">
-        <v>607300</v>
+        <v>662300</v>
       </c>
       <c r="F22" s="3">
-        <v>652600</v>
+        <v>630500</v>
       </c>
       <c r="G22" s="3">
-        <v>651300</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+        <v>677500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>676100</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1107,29 +1146,32 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5550900</v>
+        <v>14167100</v>
       </c>
       <c r="E23" s="3">
-        <v>508700</v>
+        <v>5763100</v>
       </c>
       <c r="F23" s="3">
-        <v>1742000</v>
+        <v>528200</v>
       </c>
       <c r="G23" s="3">
-        <v>-165100</v>
+        <v>1808600</v>
       </c>
       <c r="H23" s="3">
-        <v>900300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-171500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>934700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1137,29 +1179,32 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1317200</v>
+        <v>3538300</v>
       </c>
       <c r="E24" s="3">
-        <v>-102500</v>
+        <v>1367500</v>
       </c>
       <c r="F24" s="3">
-        <v>420800</v>
+        <v>-106500</v>
       </c>
       <c r="G24" s="3">
-        <v>-123900</v>
+        <v>436900</v>
       </c>
       <c r="H24" s="3">
-        <v>26600</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+        <v>-128600</v>
+      </c>
+      <c r="I24" s="3">
+        <v>27700</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,29 +1245,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4233800</v>
+        <v>10628800</v>
       </c>
       <c r="E26" s="3">
-        <v>611300</v>
+        <v>4395600</v>
       </c>
       <c r="F26" s="3">
-        <v>1321100</v>
+        <v>634700</v>
       </c>
       <c r="G26" s="3">
-        <v>-41300</v>
+        <v>1371600</v>
       </c>
       <c r="H26" s="3">
-        <v>873700</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-42900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>907100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1227,29 +1278,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4199200</v>
+        <v>10591500</v>
       </c>
       <c r="E27" s="3">
-        <v>611300</v>
+        <v>4359700</v>
       </c>
       <c r="F27" s="3">
-        <v>1321100</v>
+        <v>634700</v>
       </c>
       <c r="G27" s="3">
-        <v>-41300</v>
+        <v>1371600</v>
       </c>
       <c r="H27" s="3">
-        <v>873700</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-42900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>907100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,17 +1359,17 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G29" s="3">
-        <v>4799800</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
+        <v>4983300</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-19400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,29 +1443,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10700</v>
+        <v>109200</v>
       </c>
       <c r="E32" s="3">
-        <v>59900</v>
+        <v>-11100</v>
       </c>
       <c r="F32" s="3">
-        <v>85200</v>
+        <v>62200</v>
       </c>
       <c r="G32" s="3">
-        <v>-143800</v>
+        <v>88500</v>
       </c>
       <c r="H32" s="3">
-        <v>685900</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>-149300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>712100</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1407,29 +1476,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4199200</v>
+        <v>10591500</v>
       </c>
       <c r="E33" s="3">
-        <v>611300</v>
+        <v>4359700</v>
       </c>
       <c r="F33" s="3">
-        <v>1321100</v>
+        <v>634700</v>
       </c>
       <c r="G33" s="3">
-        <v>4758500</v>
+        <v>1371600</v>
       </c>
       <c r="H33" s="3">
-        <v>855000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>4940400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>887700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,29 +1542,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4199200</v>
+        <v>10591500</v>
       </c>
       <c r="E35" s="3">
-        <v>611300</v>
+        <v>4359700</v>
       </c>
       <c r="F35" s="3">
-        <v>1321100</v>
+        <v>634700</v>
       </c>
       <c r="G35" s="3">
-        <v>4758500</v>
+        <v>1371600</v>
       </c>
       <c r="H35" s="3">
-        <v>855000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>4940400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>887700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1497,44 +1575,50 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,28 +1646,29 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>570000</v>
+        <v>1245800</v>
       </c>
       <c r="E41" s="3">
-        <v>3767700</v>
+        <v>690000</v>
       </c>
       <c r="F41" s="3">
-        <v>708500</v>
+        <v>4020900</v>
       </c>
       <c r="G41" s="3">
-        <v>2005700</v>
+        <v>927800</v>
       </c>
       <c r="H41" s="3">
-        <v>775100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>3199600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>804700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1590,56 +1676,62 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>94600</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>105200</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>185100</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>1076100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7146400</v>
+        <v>8564400</v>
       </c>
       <c r="E43" s="3">
-        <v>9427800</v>
+        <v>7419600</v>
       </c>
       <c r="F43" s="3">
-        <v>4717200</v>
+        <v>9788100</v>
       </c>
       <c r="G43" s="3">
-        <v>4450900</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>4897500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4621000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1650,29 +1742,32 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8427600</v>
+        <v>10552800</v>
       </c>
       <c r="E44" s="3">
-        <v>13131500</v>
+        <v>8749700</v>
       </c>
       <c r="F44" s="3">
-        <v>6625700</v>
+        <v>13633400</v>
       </c>
       <c r="G44" s="3">
-        <v>6548500</v>
+        <v>6878900</v>
       </c>
       <c r="H44" s="3">
-        <v>5472400</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+        <v>6798700</v>
+      </c>
+      <c r="I44" s="3">
+        <v>5681500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1680,29 +1775,32 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2201500</v>
+        <v>2233100</v>
       </c>
       <c r="E45" s="3">
-        <v>2004400</v>
+        <v>2285600</v>
       </c>
       <c r="F45" s="3">
-        <v>1967100</v>
+        <v>2081000</v>
       </c>
       <c r="G45" s="3">
-        <v>1450300</v>
+        <v>2042200</v>
       </c>
       <c r="H45" s="3">
-        <v>4207200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>1505800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>4367900</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1710,29 +1808,32 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18440100</v>
+        <v>22596100</v>
       </c>
       <c r="E46" s="3">
-        <v>15275700</v>
+        <v>19144900</v>
       </c>
       <c r="F46" s="3">
-        <v>14203600</v>
+        <v>15859600</v>
       </c>
       <c r="G46" s="3">
-        <v>15531500</v>
+        <v>14746500</v>
       </c>
       <c r="H46" s="3">
-        <v>14334200</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>16125000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>14882000</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1740,29 +1841,32 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1157300</v>
+        <v>1240300</v>
       </c>
       <c r="E47" s="3">
-        <v>1496900</v>
+        <v>1201600</v>
       </c>
       <c r="F47" s="3">
-        <v>1093400</v>
+        <v>1554200</v>
       </c>
       <c r="G47" s="3">
-        <v>1217300</v>
+        <v>1135200</v>
       </c>
       <c r="H47" s="3">
-        <v>1084100</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>1263800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1125500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1770,29 +1874,32 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26657300</v>
+        <v>30097200</v>
       </c>
       <c r="E48" s="3">
-        <v>52366400</v>
+        <v>27676100</v>
       </c>
       <c r="F48" s="3">
-        <v>27082200</v>
+        <v>54367800</v>
       </c>
       <c r="G48" s="3">
-        <v>25032500</v>
+        <v>28117200</v>
       </c>
       <c r="H48" s="3">
-        <v>26718600</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>25989200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>27739700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1800,29 +1907,32 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19508200</v>
+        <v>20421100</v>
       </c>
       <c r="E49" s="3">
-        <v>38851300</v>
+        <v>20253800</v>
       </c>
       <c r="F49" s="3">
-        <v>19196600</v>
+        <v>40336100</v>
       </c>
       <c r="G49" s="3">
-        <v>18494700</v>
+        <v>19930200</v>
       </c>
       <c r="H49" s="3">
-        <v>3878200</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+        <v>19201600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4026400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,29 +2006,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>765800</v>
+        <v>1121400</v>
       </c>
       <c r="E52" s="3">
-        <v>1217300</v>
+        <v>795100</v>
       </c>
       <c r="F52" s="3">
-        <v>751100</v>
+        <v>1263800</v>
       </c>
       <c r="G52" s="3">
-        <v>323600</v>
+        <v>779800</v>
       </c>
       <c r="H52" s="3">
-        <v>518100</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>336000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>537900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,29 +2072,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66528700</v>
+        <v>75476100</v>
       </c>
       <c r="E54" s="3">
-        <v>62850300</v>
+        <v>69071400</v>
       </c>
       <c r="F54" s="3">
-        <v>62326900</v>
+        <v>65252400</v>
       </c>
       <c r="G54" s="3">
-        <v>60599600</v>
+        <v>64709000</v>
       </c>
       <c r="H54" s="3">
-        <v>46533100</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>62915600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>48311500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,28 +2138,29 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7945500</v>
+        <v>8015500</v>
       </c>
       <c r="E57" s="3">
-        <v>17368000</v>
+        <v>7161000</v>
       </c>
       <c r="F57" s="3">
-        <v>6142300</v>
+        <v>17180000</v>
       </c>
       <c r="G57" s="3">
-        <v>4893000</v>
+        <v>5552900</v>
       </c>
       <c r="H57" s="3">
-        <v>8166600</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>4221400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>8478700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2038,29 +2168,32 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3184300</v>
+        <v>4132900</v>
       </c>
       <c r="E58" s="3">
-        <v>562000</v>
+        <v>3306000</v>
       </c>
       <c r="F58" s="3">
-        <v>2253400</v>
+        <v>583500</v>
       </c>
       <c r="G58" s="3">
-        <v>2173500</v>
+        <v>2339500</v>
       </c>
       <c r="H58" s="3">
-        <v>2141500</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>2256600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>2223400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2068,29 +2201,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5441700</v>
+        <v>7596600</v>
       </c>
       <c r="E59" s="3">
-        <v>4031400</v>
+        <v>6737900</v>
       </c>
       <c r="F59" s="3">
-        <v>3762300</v>
+        <v>5037200</v>
       </c>
       <c r="G59" s="3">
-        <v>4034000</v>
+        <v>4730200</v>
       </c>
       <c r="H59" s="3">
-        <v>47900</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>5046900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>49800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2098,29 +2234,32 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16571600</v>
+        <v>19745000</v>
       </c>
       <c r="E60" s="3">
-        <v>11293700</v>
+        <v>17204900</v>
       </c>
       <c r="F60" s="3">
-        <v>12158000</v>
+        <v>11725300</v>
       </c>
       <c r="G60" s="3">
-        <v>11100600</v>
+        <v>12622700</v>
       </c>
       <c r="H60" s="3">
-        <v>10356100</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>11524800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>10751900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2128,29 +2267,32 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11260400</v>
+        <v>12360000</v>
       </c>
       <c r="E61" s="3">
-        <v>14567200</v>
+        <v>11690700</v>
       </c>
       <c r="F61" s="3">
-        <v>12534900</v>
+        <v>15124000</v>
       </c>
       <c r="G61" s="3">
-        <v>10109700</v>
+        <v>13014000</v>
       </c>
       <c r="H61" s="3">
-        <v>10798200</v>
+        <v>10496100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>11210900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2158,29 +2300,32 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7134500</v>
+        <v>7610400</v>
       </c>
       <c r="E62" s="3">
-        <v>7153100</v>
+        <v>7407100</v>
       </c>
       <c r="F62" s="3">
-        <v>7177100</v>
+        <v>7426500</v>
       </c>
       <c r="G62" s="3">
-        <v>6860100</v>
+        <v>7451400</v>
       </c>
       <c r="H62" s="3">
-        <v>6168900</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>7122300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6404700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,29 +2432,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35029000</v>
+        <v>39777500</v>
       </c>
       <c r="E66" s="3">
-        <v>33064600</v>
+        <v>36367800</v>
       </c>
       <c r="F66" s="3">
-        <v>31870000</v>
+        <v>34328300</v>
       </c>
       <c r="G66" s="3">
-        <v>28070300</v>
+        <v>33088000</v>
       </c>
       <c r="H66" s="3">
-        <v>27323200</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>29143200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>28367500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,26 +2612,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10910100</v>
+        <v>16492800</v>
       </c>
       <c r="E72" s="3">
-        <v>8797900</v>
+        <v>11327100</v>
       </c>
       <c r="F72" s="3">
-        <v>9457100</v>
+        <v>9134100</v>
       </c>
       <c r="G72" s="3">
-        <v>10314800</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>9818600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>10709000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,29 +2744,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31499700</v>
+        <v>35698500</v>
       </c>
       <c r="E76" s="3">
-        <v>29785700</v>
+        <v>32703600</v>
       </c>
       <c r="F76" s="3">
-        <v>30456900</v>
+        <v>30924100</v>
       </c>
       <c r="G76" s="3">
-        <v>32529200</v>
+        <v>31621000</v>
       </c>
       <c r="H76" s="3">
-        <v>19209900</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>33772400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>19944100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,64 +2810,70 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4199200</v>
+        <v>10591500</v>
       </c>
       <c r="E81" s="3">
-        <v>611300</v>
+        <v>4359700</v>
       </c>
       <c r="F81" s="3">
-        <v>1321100</v>
+        <v>634700</v>
       </c>
       <c r="G81" s="3">
-        <v>4758500</v>
+        <v>1371600</v>
       </c>
       <c r="H81" s="3">
-        <v>855000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>4940400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>887700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,25 +2899,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2598300</v>
+        <v>2782000</v>
       </c>
       <c r="E83" s="3">
-        <v>2649000</v>
+        <v>2697600</v>
       </c>
       <c r="F83" s="3">
-        <v>2395900</v>
+        <v>2750200</v>
       </c>
       <c r="G83" s="3">
-        <v>2120200</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>2487500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2201300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,26 +3094,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5175400</v>
+        <v>11213700</v>
       </c>
       <c r="E89" s="3">
-        <v>4425600</v>
+        <v>5373200</v>
       </c>
       <c r="F89" s="3">
-        <v>4881000</v>
+        <v>4594700</v>
       </c>
       <c r="G89" s="3">
-        <v>2732900</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>5067600</v>
+      </c>
+      <c r="H89" s="3">
+        <v>2837300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,25 +3145,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2374600</v>
+        <v>-3371000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1895200</v>
+        <v>-2465400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2301400</v>
+        <v>-1967600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1871200</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-2389300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1942700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,26 +3241,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2406600</v>
+        <v>-4011200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1603500</v>
+        <v>-2498500</v>
       </c>
       <c r="F94" s="3">
-        <v>-3726400</v>
+        <v>-1664800</v>
       </c>
       <c r="G94" s="3">
-        <v>5176700</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-3868800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>5374600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,25 +3292,26 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1391700</v>
+        <v>-1425600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1371800</v>
+        <v>-1444900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1361100</v>
+        <v>-1424200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1267900</v>
+        <v>-1413100</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1316300</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,26 +3421,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3999400</v>
+        <v>-6541600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1783300</v>
+        <v>-4152200</v>
       </c>
       <c r="F100" s="3">
-        <v>-3301500</v>
+        <v>-1851400</v>
       </c>
       <c r="G100" s="3">
-        <v>-4934300</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>-3427700</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-5122900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3209,26 +3454,29 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-41300</v>
+        <v>-105100</v>
       </c>
       <c r="E101" s="3">
-        <v>4000</v>
+        <v>-42900</v>
       </c>
       <c r="F101" s="3">
-        <v>-41300</v>
+        <v>4100</v>
       </c>
       <c r="G101" s="3">
-        <v>-47900</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+        <v>-42900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-49800</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3239,26 +3487,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1271900</v>
+        <v>555800</v>
       </c>
       <c r="E102" s="3">
-        <v>1042800</v>
+        <v>-1320500</v>
       </c>
       <c r="F102" s="3">
-        <v>-2188100</v>
+        <v>1082700</v>
       </c>
       <c r="G102" s="3">
-        <v>2927300</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>-2271800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>3039200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>52382200</v>
+        <v>51143400</v>
       </c>
       <c r="E8" s="3">
-        <v>38317400</v>
+        <v>37411200</v>
       </c>
       <c r="F8" s="3">
-        <v>28909500</v>
+        <v>28225800</v>
       </c>
       <c r="G8" s="3">
-        <v>27770100</v>
+        <v>27113400</v>
       </c>
       <c r="H8" s="3">
-        <v>27150700</v>
+        <v>26508600</v>
       </c>
       <c r="I8" s="3">
-        <v>25122300</v>
+        <v>24528200</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>32312300</v>
+        <v>31548200</v>
       </c>
       <c r="E9" s="3">
-        <v>25779100</v>
+        <v>25169400</v>
       </c>
       <c r="F9" s="3">
-        <v>21784400</v>
+        <v>21269300</v>
       </c>
       <c r="G9" s="3">
-        <v>20425200</v>
+        <v>19942200</v>
       </c>
       <c r="H9" s="3">
-        <v>19916400</v>
+        <v>19445400</v>
       </c>
       <c r="I9" s="3">
-        <v>19382700</v>
+        <v>18924300</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>20069900</v>
+        <v>19595300</v>
       </c>
       <c r="E10" s="3">
-        <v>12538300</v>
+        <v>12241800</v>
       </c>
       <c r="F10" s="3">
-        <v>7125100</v>
+        <v>6956600</v>
       </c>
       <c r="G10" s="3">
-        <v>7344900</v>
+        <v>7171200</v>
       </c>
       <c r="H10" s="3">
-        <v>7234300</v>
+        <v>7063200</v>
       </c>
       <c r="I10" s="3">
-        <v>5739600</v>
+        <v>5603900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -898,19 +898,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-1003800</v>
+        <v>-980100</v>
       </c>
       <c r="E14" s="3">
-        <v>363700</v>
+        <v>355100</v>
       </c>
       <c r="F14" s="3">
-        <v>977600</v>
+        <v>954500</v>
       </c>
       <c r="G14" s="3">
-        <v>301400</v>
+        <v>294300</v>
       </c>
       <c r="H14" s="3">
-        <v>2736400</v>
+        <v>2671700</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -931,19 +931,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1061900</v>
+        <v>1036800</v>
       </c>
       <c r="E15" s="3">
-        <v>984500</v>
+        <v>961200</v>
       </c>
       <c r="F15" s="3">
-        <v>620800</v>
+        <v>606200</v>
       </c>
       <c r="G15" s="3">
-        <v>531000</v>
+        <v>518400</v>
       </c>
       <c r="H15" s="3">
-        <v>406500</v>
+        <v>396900</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>37436600</v>
+        <v>36551300</v>
       </c>
       <c r="E17" s="3">
-        <v>31903000</v>
+        <v>31148600</v>
       </c>
       <c r="F17" s="3">
-        <v>27688600</v>
+        <v>27033800</v>
       </c>
       <c r="G17" s="3">
-        <v>25195600</v>
+        <v>24599700</v>
       </c>
       <c r="H17" s="3">
-        <v>26795300</v>
+        <v>26161700</v>
       </c>
       <c r="I17" s="3">
-        <v>23475500</v>
+        <v>22920300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14945600</v>
+        <v>14592200</v>
       </c>
       <c r="E18" s="3">
-        <v>6414300</v>
+        <v>6262700</v>
       </c>
       <c r="F18" s="3">
-        <v>1220900</v>
+        <v>1192100</v>
       </c>
       <c r="G18" s="3">
-        <v>2574600</v>
+        <v>2513700</v>
       </c>
       <c r="H18" s="3">
-        <v>355400</v>
+        <v>347000</v>
       </c>
       <c r="I18" s="3">
-        <v>1646800</v>
+        <v>1607900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,22 +1057,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-109200</v>
+        <v>-106700</v>
       </c>
       <c r="E20" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="F20" s="3">
-        <v>-62200</v>
+        <v>-60800</v>
       </c>
       <c r="G20" s="3">
-        <v>-88500</v>
+        <v>-86400</v>
       </c>
       <c r="H20" s="3">
-        <v>149300</v>
+        <v>145800</v>
       </c>
       <c r="I20" s="3">
-        <v>-712100</v>
+        <v>-695200</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17613700</v>
+        <v>17191800</v>
       </c>
       <c r="E21" s="3">
-        <v>9118600</v>
+        <v>8897700</v>
       </c>
       <c r="F21" s="3">
-        <v>3904300</v>
+        <v>3806700</v>
       </c>
       <c r="G21" s="3">
-        <v>4969400</v>
+        <v>4847100</v>
       </c>
       <c r="H21" s="3">
-        <v>2702300</v>
+        <v>2634100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>669200</v>
+        <v>653400</v>
       </c>
       <c r="E22" s="3">
-        <v>662300</v>
+        <v>646700</v>
       </c>
       <c r="F22" s="3">
-        <v>630500</v>
+        <v>615600</v>
       </c>
       <c r="G22" s="3">
-        <v>677500</v>
+        <v>661500</v>
       </c>
       <c r="H22" s="3">
-        <v>676100</v>
+        <v>660200</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14167100</v>
+        <v>13832100</v>
       </c>
       <c r="E23" s="3">
-        <v>5763100</v>
+        <v>5626800</v>
       </c>
       <c r="F23" s="3">
-        <v>528200</v>
+        <v>515700</v>
       </c>
       <c r="G23" s="3">
-        <v>1808600</v>
+        <v>1765800</v>
       </c>
       <c r="H23" s="3">
-        <v>-171500</v>
+        <v>-167400</v>
       </c>
       <c r="I23" s="3">
-        <v>934700</v>
+        <v>912600</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,22 +1189,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3538300</v>
+        <v>3454700</v>
       </c>
       <c r="E24" s="3">
-        <v>1367500</v>
+        <v>1335200</v>
       </c>
       <c r="F24" s="3">
-        <v>-106500</v>
+        <v>-104000</v>
       </c>
       <c r="G24" s="3">
-        <v>436900</v>
+        <v>426600</v>
       </c>
       <c r="H24" s="3">
-        <v>-128600</v>
+        <v>-125600</v>
       </c>
       <c r="I24" s="3">
-        <v>27700</v>
+        <v>27000</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10628800</v>
+        <v>10377500</v>
       </c>
       <c r="E26" s="3">
-        <v>4395600</v>
+        <v>4291700</v>
       </c>
       <c r="F26" s="3">
-        <v>634700</v>
+        <v>619700</v>
       </c>
       <c r="G26" s="3">
-        <v>1371600</v>
+        <v>1339200</v>
       </c>
       <c r="H26" s="3">
-        <v>-42900</v>
+        <v>-41900</v>
       </c>
       <c r="I26" s="3">
-        <v>907100</v>
+        <v>885600</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10591500</v>
+        <v>10341000</v>
       </c>
       <c r="E27" s="3">
-        <v>4359700</v>
+        <v>4256600</v>
       </c>
       <c r="F27" s="3">
-        <v>634700</v>
+        <v>619700</v>
       </c>
       <c r="G27" s="3">
-        <v>1371600</v>
+        <v>1339200</v>
       </c>
       <c r="H27" s="3">
-        <v>-42900</v>
+        <v>-41900</v>
       </c>
       <c r="I27" s="3">
-        <v>907100</v>
+        <v>885600</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1366,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>4983300</v>
+        <v>4865400</v>
       </c>
       <c r="I29" s="3">
-        <v>-19400</v>
+        <v>-18900</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
@@ -1453,22 +1453,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>109200</v>
+        <v>106700</v>
       </c>
       <c r="E32" s="3">
-        <v>-11100</v>
+        <v>-10800</v>
       </c>
       <c r="F32" s="3">
-        <v>62200</v>
+        <v>60800</v>
       </c>
       <c r="G32" s="3">
-        <v>88500</v>
+        <v>86400</v>
       </c>
       <c r="H32" s="3">
-        <v>-149300</v>
+        <v>-145800</v>
       </c>
       <c r="I32" s="3">
-        <v>712100</v>
+        <v>695200</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10591500</v>
+        <v>10341000</v>
       </c>
       <c r="E33" s="3">
-        <v>4359700</v>
+        <v>4256600</v>
       </c>
       <c r="F33" s="3">
-        <v>634700</v>
+        <v>619700</v>
       </c>
       <c r="G33" s="3">
-        <v>1371600</v>
+        <v>1339200</v>
       </c>
       <c r="H33" s="3">
-        <v>4940400</v>
+        <v>4823600</v>
       </c>
       <c r="I33" s="3">
-        <v>887700</v>
+        <v>866700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10591500</v>
+        <v>10341000</v>
       </c>
       <c r="E35" s="3">
-        <v>4359700</v>
+        <v>4256600</v>
       </c>
       <c r="F35" s="3">
-        <v>634700</v>
+        <v>619700</v>
       </c>
       <c r="G35" s="3">
-        <v>1371600</v>
+        <v>1339200</v>
       </c>
       <c r="H35" s="3">
-        <v>4940400</v>
+        <v>4823600</v>
       </c>
       <c r="I35" s="3">
-        <v>887700</v>
+        <v>866700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1245800</v>
+        <v>1216400</v>
       </c>
       <c r="E41" s="3">
-        <v>690000</v>
+        <v>673700</v>
       </c>
       <c r="F41" s="3">
-        <v>4020900</v>
+        <v>3925800</v>
       </c>
       <c r="G41" s="3">
-        <v>927800</v>
+        <v>905900</v>
       </c>
       <c r="H41" s="3">
-        <v>3199600</v>
+        <v>3123900</v>
       </c>
       <c r="I41" s="3">
-        <v>804700</v>
+        <v>785700</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8564400</v>
+        <v>8361900</v>
       </c>
       <c r="E43" s="3">
-        <v>7419600</v>
+        <v>7244100</v>
       </c>
       <c r="F43" s="3">
-        <v>9788100</v>
+        <v>9556700</v>
       </c>
       <c r="G43" s="3">
-        <v>4897500</v>
+        <v>4781700</v>
       </c>
       <c r="H43" s="3">
-        <v>4621000</v>
+        <v>4511700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1752,22 +1752,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10552800</v>
+        <v>10303200</v>
       </c>
       <c r="E44" s="3">
-        <v>8749700</v>
+        <v>8542800</v>
       </c>
       <c r="F44" s="3">
-        <v>13633400</v>
+        <v>13311000</v>
       </c>
       <c r="G44" s="3">
-        <v>6878900</v>
+        <v>6716300</v>
       </c>
       <c r="H44" s="3">
-        <v>6798700</v>
+        <v>6638000</v>
       </c>
       <c r="I44" s="3">
-        <v>5681500</v>
+        <v>5547200</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2233100</v>
+        <v>2180300</v>
       </c>
       <c r="E45" s="3">
-        <v>2285600</v>
+        <v>2231600</v>
       </c>
       <c r="F45" s="3">
-        <v>2081000</v>
+        <v>2031800</v>
       </c>
       <c r="G45" s="3">
-        <v>2042200</v>
+        <v>1994000</v>
       </c>
       <c r="H45" s="3">
-        <v>1505800</v>
+        <v>1470200</v>
       </c>
       <c r="I45" s="3">
-        <v>4367900</v>
+        <v>4264700</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22596100</v>
+        <v>22061700</v>
       </c>
       <c r="E46" s="3">
-        <v>19144900</v>
+        <v>18692100</v>
       </c>
       <c r="F46" s="3">
-        <v>15859600</v>
+        <v>15484500</v>
       </c>
       <c r="G46" s="3">
-        <v>14746500</v>
+        <v>14397800</v>
       </c>
       <c r="H46" s="3">
-        <v>16125000</v>
+        <v>15743700</v>
       </c>
       <c r="I46" s="3">
-        <v>14882000</v>
+        <v>14530100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1851,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1240300</v>
+        <v>1211000</v>
       </c>
       <c r="E47" s="3">
-        <v>1201600</v>
+        <v>1173200</v>
       </c>
       <c r="F47" s="3">
-        <v>1554200</v>
+        <v>1517400</v>
       </c>
       <c r="G47" s="3">
-        <v>1135200</v>
+        <v>1108400</v>
       </c>
       <c r="H47" s="3">
-        <v>1263800</v>
+        <v>1233900</v>
       </c>
       <c r="I47" s="3">
-        <v>1125500</v>
+        <v>1098900</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30097200</v>
+        <v>29385500</v>
       </c>
       <c r="E48" s="3">
-        <v>27676100</v>
+        <v>27021600</v>
       </c>
       <c r="F48" s="3">
-        <v>54367800</v>
+        <v>53082000</v>
       </c>
       <c r="G48" s="3">
-        <v>28117200</v>
+        <v>27452300</v>
       </c>
       <c r="H48" s="3">
-        <v>25989200</v>
+        <v>25374600</v>
       </c>
       <c r="I48" s="3">
-        <v>27739700</v>
+        <v>27083700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1917,22 +1917,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20421100</v>
+        <v>19938200</v>
       </c>
       <c r="E49" s="3">
-        <v>20253800</v>
+        <v>19774800</v>
       </c>
       <c r="F49" s="3">
-        <v>40336100</v>
+        <v>39382200</v>
       </c>
       <c r="G49" s="3">
-        <v>19930200</v>
+        <v>19458900</v>
       </c>
       <c r="H49" s="3">
-        <v>19201600</v>
+        <v>18747500</v>
       </c>
       <c r="I49" s="3">
-        <v>4026400</v>
+        <v>3931200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2016,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1121400</v>
+        <v>1094900</v>
       </c>
       <c r="E52" s="3">
-        <v>795100</v>
+        <v>776300</v>
       </c>
       <c r="F52" s="3">
-        <v>1263800</v>
+        <v>1233900</v>
       </c>
       <c r="G52" s="3">
-        <v>779800</v>
+        <v>761400</v>
       </c>
       <c r="H52" s="3">
-        <v>336000</v>
+        <v>328100</v>
       </c>
       <c r="I52" s="3">
-        <v>537900</v>
+        <v>525200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75476100</v>
+        <v>73691100</v>
       </c>
       <c r="E54" s="3">
-        <v>69071400</v>
+        <v>67437900</v>
       </c>
       <c r="F54" s="3">
-        <v>65252400</v>
+        <v>63709200</v>
       </c>
       <c r="G54" s="3">
-        <v>64709000</v>
+        <v>63178700</v>
       </c>
       <c r="H54" s="3">
-        <v>62915600</v>
+        <v>61427700</v>
       </c>
       <c r="I54" s="3">
-        <v>48311500</v>
+        <v>47169000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8015500</v>
+        <v>7826000</v>
       </c>
       <c r="E57" s="3">
-        <v>7161000</v>
+        <v>6991700</v>
       </c>
       <c r="F57" s="3">
-        <v>17180000</v>
+        <v>16773800</v>
       </c>
       <c r="G57" s="3">
-        <v>5552900</v>
+        <v>5421600</v>
       </c>
       <c r="H57" s="3">
-        <v>4221400</v>
+        <v>4121600</v>
       </c>
       <c r="I57" s="3">
-        <v>8478700</v>
+        <v>8278200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2178,22 +2178,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4132900</v>
+        <v>4035200</v>
       </c>
       <c r="E58" s="3">
-        <v>3306000</v>
+        <v>3227900</v>
       </c>
       <c r="F58" s="3">
-        <v>583500</v>
+        <v>569700</v>
       </c>
       <c r="G58" s="3">
-        <v>2339500</v>
+        <v>2284200</v>
       </c>
       <c r="H58" s="3">
-        <v>2256600</v>
+        <v>2203200</v>
       </c>
       <c r="I58" s="3">
-        <v>2223400</v>
+        <v>2170800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7596600</v>
+        <v>7416900</v>
       </c>
       <c r="E59" s="3">
-        <v>6737900</v>
+        <v>6578600</v>
       </c>
       <c r="F59" s="3">
-        <v>5037200</v>
+        <v>4918100</v>
       </c>
       <c r="G59" s="3">
-        <v>4730200</v>
+        <v>4618400</v>
       </c>
       <c r="H59" s="3">
-        <v>5046900</v>
+        <v>4927500</v>
       </c>
       <c r="I59" s="3">
-        <v>49800</v>
+        <v>48600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19745000</v>
+        <v>19278000</v>
       </c>
       <c r="E60" s="3">
-        <v>17204900</v>
+        <v>16798100</v>
       </c>
       <c r="F60" s="3">
-        <v>11725300</v>
+        <v>11448000</v>
       </c>
       <c r="G60" s="3">
-        <v>12622700</v>
+        <v>12324200</v>
       </c>
       <c r="H60" s="3">
-        <v>11524800</v>
+        <v>11252300</v>
       </c>
       <c r="I60" s="3">
-        <v>10751900</v>
+        <v>10497600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2277,22 +2277,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12360000</v>
+        <v>12067700</v>
       </c>
       <c r="E61" s="3">
-        <v>11690700</v>
+        <v>11414300</v>
       </c>
       <c r="F61" s="3">
-        <v>15124000</v>
+        <v>14766300</v>
       </c>
       <c r="G61" s="3">
-        <v>13014000</v>
+        <v>12706200</v>
       </c>
       <c r="H61" s="3">
-        <v>10496100</v>
+        <v>10247900</v>
       </c>
       <c r="I61" s="3">
-        <v>11210900</v>
+        <v>10945800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7610400</v>
+        <v>7430400</v>
       </c>
       <c r="E62" s="3">
-        <v>7407100</v>
+        <v>7232000</v>
       </c>
       <c r="F62" s="3">
-        <v>7426500</v>
+        <v>7250900</v>
       </c>
       <c r="G62" s="3">
-        <v>7451400</v>
+        <v>7275200</v>
       </c>
       <c r="H62" s="3">
-        <v>7122300</v>
+        <v>6953900</v>
       </c>
       <c r="I62" s="3">
-        <v>6404700</v>
+        <v>6253200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39777500</v>
+        <v>38836800</v>
       </c>
       <c r="E66" s="3">
-        <v>36367800</v>
+        <v>35507700</v>
       </c>
       <c r="F66" s="3">
-        <v>34328300</v>
+        <v>33516500</v>
       </c>
       <c r="G66" s="3">
-        <v>33088000</v>
+        <v>32305500</v>
       </c>
       <c r="H66" s="3">
-        <v>29143200</v>
+        <v>28454000</v>
       </c>
       <c r="I66" s="3">
-        <v>28367500</v>
+        <v>27696600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16492800</v>
+        <v>16102800</v>
       </c>
       <c r="E72" s="3">
-        <v>11327100</v>
+        <v>11059200</v>
       </c>
       <c r="F72" s="3">
-        <v>9134100</v>
+        <v>8918100</v>
       </c>
       <c r="G72" s="3">
-        <v>9818600</v>
+        <v>9586400</v>
       </c>
       <c r="H72" s="3">
-        <v>10709000</v>
+        <v>10455800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35698500</v>
+        <v>34854300</v>
       </c>
       <c r="E76" s="3">
-        <v>32703600</v>
+        <v>31930200</v>
       </c>
       <c r="F76" s="3">
-        <v>30924100</v>
+        <v>30192800</v>
       </c>
       <c r="G76" s="3">
-        <v>31621000</v>
+        <v>30873200</v>
       </c>
       <c r="H76" s="3">
-        <v>33772400</v>
+        <v>32973800</v>
       </c>
       <c r="I76" s="3">
-        <v>19944100</v>
+        <v>19472400</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10591500</v>
+        <v>10341000</v>
       </c>
       <c r="E81" s="3">
-        <v>4359700</v>
+        <v>4256600</v>
       </c>
       <c r="F81" s="3">
-        <v>634700</v>
+        <v>619700</v>
       </c>
       <c r="G81" s="3">
-        <v>1371600</v>
+        <v>1339200</v>
       </c>
       <c r="H81" s="3">
-        <v>4940400</v>
+        <v>4823600</v>
       </c>
       <c r="I81" s="3">
-        <v>887700</v>
+        <v>866700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2782000</v>
+        <v>2716200</v>
       </c>
       <c r="E83" s="3">
-        <v>2697600</v>
+        <v>2633900</v>
       </c>
       <c r="F83" s="3">
-        <v>2750200</v>
+        <v>2685200</v>
       </c>
       <c r="G83" s="3">
-        <v>2487500</v>
+        <v>2428700</v>
       </c>
       <c r="H83" s="3">
-        <v>2201300</v>
+        <v>2149200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>11213700</v>
+        <v>10948500</v>
       </c>
       <c r="E89" s="3">
-        <v>5373200</v>
+        <v>5246100</v>
       </c>
       <c r="F89" s="3">
-        <v>4594700</v>
+        <v>4486100</v>
       </c>
       <c r="G89" s="3">
-        <v>5067600</v>
+        <v>4947800</v>
       </c>
       <c r="H89" s="3">
-        <v>2837300</v>
+        <v>2770200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3371000</v>
+        <v>-3291300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2465400</v>
+        <v>-2407100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1967600</v>
+        <v>-1921100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2389300</v>
+        <v>-2332800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1942700</v>
+        <v>-1896800</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4011200</v>
+        <v>-3916400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2498500</v>
+        <v>-2439500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1664800</v>
+        <v>-1625400</v>
       </c>
       <c r="G94" s="3">
-        <v>-3868800</v>
+        <v>-3777300</v>
       </c>
       <c r="H94" s="3">
-        <v>5374600</v>
+        <v>5247500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3299,19 +3299,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1425600</v>
+        <v>-1391900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1444900</v>
+        <v>-1410800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1424200</v>
+        <v>-1390500</v>
       </c>
       <c r="G96" s="3">
-        <v>-1413100</v>
+        <v>-1379700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1316300</v>
+        <v>-1285200</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6541600</v>
+        <v>-6386900</v>
       </c>
       <c r="E100" s="3">
-        <v>-4152200</v>
+        <v>-4054100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1851400</v>
+        <v>-1807700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3427700</v>
+        <v>-3346700</v>
       </c>
       <c r="H100" s="3">
-        <v>-5122900</v>
+        <v>-5001800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-105100</v>
+        <v>-102600</v>
       </c>
       <c r="E101" s="3">
-        <v>-42900</v>
+        <v>-41900</v>
       </c>
       <c r="F101" s="3">
         <v>4100</v>
       </c>
       <c r="G101" s="3">
-        <v>-42900</v>
+        <v>-41900</v>
       </c>
       <c r="H101" s="3">
-        <v>-49800</v>
+        <v>-48600</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>555800</v>
+        <v>542700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1320500</v>
+        <v>-1289300</v>
       </c>
       <c r="F102" s="3">
-        <v>1082700</v>
+        <v>1057100</v>
       </c>
       <c r="G102" s="3">
-        <v>-2271800</v>
+        <v>-2218100</v>
       </c>
       <c r="H102" s="3">
-        <v>3039200</v>
+        <v>2967300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>51143400</v>
+        <v>51169900</v>
       </c>
       <c r="E8" s="3">
-        <v>37411200</v>
+        <v>37430600</v>
       </c>
       <c r="F8" s="3">
-        <v>28225800</v>
+        <v>28240400</v>
       </c>
       <c r="G8" s="3">
-        <v>27113400</v>
+        <v>27127500</v>
       </c>
       <c r="H8" s="3">
-        <v>26508600</v>
+        <v>26522300</v>
       </c>
       <c r="I8" s="3">
-        <v>24528200</v>
+        <v>24540900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>31548200</v>
+        <v>31564500</v>
       </c>
       <c r="E9" s="3">
-        <v>25169400</v>
+        <v>25182500</v>
       </c>
       <c r="F9" s="3">
-        <v>21269300</v>
+        <v>21280300</v>
       </c>
       <c r="G9" s="3">
-        <v>19942200</v>
+        <v>19952500</v>
       </c>
       <c r="H9" s="3">
-        <v>19445400</v>
+        <v>19455500</v>
       </c>
       <c r="I9" s="3">
-        <v>18924300</v>
+        <v>18934100</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>19595300</v>
+        <v>19605400</v>
       </c>
       <c r="E10" s="3">
-        <v>12241800</v>
+        <v>12248100</v>
       </c>
       <c r="F10" s="3">
-        <v>6956600</v>
+        <v>6960200</v>
       </c>
       <c r="G10" s="3">
-        <v>7171200</v>
+        <v>7174900</v>
       </c>
       <c r="H10" s="3">
-        <v>7063200</v>
+        <v>7066900</v>
       </c>
       <c r="I10" s="3">
-        <v>5603900</v>
+        <v>5606800</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -898,19 +898,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-980100</v>
+        <v>-980600</v>
       </c>
       <c r="E14" s="3">
-        <v>355100</v>
+        <v>355200</v>
       </c>
       <c r="F14" s="3">
-        <v>954500</v>
+        <v>954900</v>
       </c>
       <c r="G14" s="3">
-        <v>294300</v>
+        <v>294500</v>
       </c>
       <c r="H14" s="3">
-        <v>2671700</v>
+        <v>2673000</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -931,19 +931,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1036800</v>
+        <v>1037300</v>
       </c>
       <c r="E15" s="3">
-        <v>961200</v>
+        <v>961700</v>
       </c>
       <c r="F15" s="3">
-        <v>606200</v>
+        <v>606500</v>
       </c>
       <c r="G15" s="3">
-        <v>518400</v>
+        <v>518700</v>
       </c>
       <c r="H15" s="3">
-        <v>396900</v>
+        <v>397100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36551300</v>
+        <v>36570200</v>
       </c>
       <c r="E17" s="3">
-        <v>31148600</v>
+        <v>31164700</v>
       </c>
       <c r="F17" s="3">
-        <v>27033800</v>
+        <v>27047800</v>
       </c>
       <c r="G17" s="3">
-        <v>24599700</v>
+        <v>24612500</v>
       </c>
       <c r="H17" s="3">
-        <v>26161700</v>
+        <v>26175200</v>
       </c>
       <c r="I17" s="3">
-        <v>22920300</v>
+        <v>22932200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14592200</v>
+        <v>14599700</v>
       </c>
       <c r="E18" s="3">
-        <v>6262700</v>
+        <v>6265900</v>
       </c>
       <c r="F18" s="3">
-        <v>1192100</v>
+        <v>1192700</v>
       </c>
       <c r="G18" s="3">
-        <v>2513700</v>
+        <v>2515000</v>
       </c>
       <c r="H18" s="3">
-        <v>347000</v>
+        <v>347100</v>
       </c>
       <c r="I18" s="3">
-        <v>1607900</v>
+        <v>1608700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1069,10 +1069,10 @@
         <v>-86400</v>
       </c>
       <c r="H20" s="3">
-        <v>145800</v>
+        <v>145900</v>
       </c>
       <c r="I20" s="3">
-        <v>-695200</v>
+        <v>-695600</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17191800</v>
+        <v>17210600</v>
       </c>
       <c r="E21" s="3">
-        <v>8897700</v>
+        <v>8911900</v>
       </c>
       <c r="F21" s="3">
-        <v>3806700</v>
+        <v>3818400</v>
       </c>
       <c r="G21" s="3">
-        <v>4847100</v>
+        <v>4858500</v>
       </c>
       <c r="H21" s="3">
-        <v>2634100</v>
+        <v>2643300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>653400</v>
+        <v>653700</v>
       </c>
       <c r="E22" s="3">
-        <v>646700</v>
+        <v>647000</v>
       </c>
       <c r="F22" s="3">
-        <v>615600</v>
+        <v>615900</v>
       </c>
       <c r="G22" s="3">
-        <v>661500</v>
+        <v>661800</v>
       </c>
       <c r="H22" s="3">
-        <v>660200</v>
+        <v>660500</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13832100</v>
+        <v>13839300</v>
       </c>
       <c r="E23" s="3">
-        <v>5626800</v>
+        <v>5629700</v>
       </c>
       <c r="F23" s="3">
-        <v>515700</v>
+        <v>516000</v>
       </c>
       <c r="G23" s="3">
-        <v>1765800</v>
+        <v>1766700</v>
       </c>
       <c r="H23" s="3">
-        <v>-167400</v>
+        <v>-167500</v>
       </c>
       <c r="I23" s="3">
-        <v>912600</v>
+        <v>913100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,16 +1189,16 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3454700</v>
+        <v>3456400</v>
       </c>
       <c r="E24" s="3">
-        <v>1335200</v>
+        <v>1335800</v>
       </c>
       <c r="F24" s="3">
         <v>-104000</v>
       </c>
       <c r="G24" s="3">
-        <v>426600</v>
+        <v>426800</v>
       </c>
       <c r="H24" s="3">
         <v>-125600</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10377500</v>
+        <v>10382800</v>
       </c>
       <c r="E26" s="3">
-        <v>4291700</v>
+        <v>4293900</v>
       </c>
       <c r="F26" s="3">
-        <v>619700</v>
+        <v>620000</v>
       </c>
       <c r="G26" s="3">
-        <v>1339200</v>
+        <v>1339900</v>
       </c>
       <c r="H26" s="3">
         <v>-41900</v>
       </c>
       <c r="I26" s="3">
-        <v>885600</v>
+        <v>886100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10341000</v>
+        <v>10346400</v>
       </c>
       <c r="E27" s="3">
-        <v>4256600</v>
+        <v>4258800</v>
       </c>
       <c r="F27" s="3">
-        <v>619700</v>
+        <v>620000</v>
       </c>
       <c r="G27" s="3">
-        <v>1339200</v>
+        <v>1339900</v>
       </c>
       <c r="H27" s="3">
         <v>-41900</v>
       </c>
       <c r="I27" s="3">
-        <v>885600</v>
+        <v>886100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>4865400</v>
+        <v>4867900</v>
       </c>
       <c r="I29" s="3">
         <v>-18900</v>
@@ -1465,10 +1465,10 @@
         <v>86400</v>
       </c>
       <c r="H32" s="3">
-        <v>-145800</v>
+        <v>-145900</v>
       </c>
       <c r="I32" s="3">
-        <v>695200</v>
+        <v>695600</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10341000</v>
+        <v>10346400</v>
       </c>
       <c r="E33" s="3">
-        <v>4256600</v>
+        <v>4258800</v>
       </c>
       <c r="F33" s="3">
-        <v>619700</v>
+        <v>620000</v>
       </c>
       <c r="G33" s="3">
-        <v>1339200</v>
+        <v>1339900</v>
       </c>
       <c r="H33" s="3">
-        <v>4823600</v>
+        <v>4826100</v>
       </c>
       <c r="I33" s="3">
-        <v>866700</v>
+        <v>867100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10341000</v>
+        <v>10346400</v>
       </c>
       <c r="E35" s="3">
-        <v>4256600</v>
+        <v>4258800</v>
       </c>
       <c r="F35" s="3">
-        <v>619700</v>
+        <v>620000</v>
       </c>
       <c r="G35" s="3">
-        <v>1339200</v>
+        <v>1339900</v>
       </c>
       <c r="H35" s="3">
-        <v>4823600</v>
+        <v>4826100</v>
       </c>
       <c r="I35" s="3">
-        <v>866700</v>
+        <v>867100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1216400</v>
+        <v>1217000</v>
       </c>
       <c r="E41" s="3">
-        <v>673700</v>
+        <v>674000</v>
       </c>
       <c r="F41" s="3">
-        <v>3925800</v>
+        <v>3927800</v>
       </c>
       <c r="G41" s="3">
-        <v>905900</v>
+        <v>906300</v>
       </c>
       <c r="H41" s="3">
-        <v>3123900</v>
+        <v>3125500</v>
       </c>
       <c r="I41" s="3">
-        <v>785700</v>
+        <v>786100</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8361900</v>
+        <v>8366200</v>
       </c>
       <c r="E43" s="3">
-        <v>7244100</v>
+        <v>7247900</v>
       </c>
       <c r="F43" s="3">
-        <v>9556700</v>
+        <v>4836900</v>
       </c>
       <c r="G43" s="3">
-        <v>4781700</v>
+        <v>4784200</v>
       </c>
       <c r="H43" s="3">
-        <v>4511700</v>
+        <v>4514000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1752,22 +1752,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10303200</v>
+        <v>10308500</v>
       </c>
       <c r="E44" s="3">
-        <v>8542800</v>
+        <v>8547200</v>
       </c>
       <c r="F44" s="3">
-        <v>13311000</v>
+        <v>13317900</v>
       </c>
       <c r="G44" s="3">
-        <v>6716300</v>
+        <v>6719700</v>
       </c>
       <c r="H44" s="3">
-        <v>6638000</v>
+        <v>6641400</v>
       </c>
       <c r="I44" s="3">
-        <v>5547200</v>
+        <v>5550000</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2180300</v>
+        <v>2181400</v>
       </c>
       <c r="E45" s="3">
-        <v>2231600</v>
+        <v>2232700</v>
       </c>
       <c r="F45" s="3">
-        <v>2031800</v>
+        <v>2032800</v>
       </c>
       <c r="G45" s="3">
-        <v>1994000</v>
+        <v>1995000</v>
       </c>
       <c r="H45" s="3">
-        <v>1470200</v>
+        <v>1470900</v>
       </c>
       <c r="I45" s="3">
-        <v>4264700</v>
+        <v>4266900</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22061700</v>
+        <v>22073100</v>
       </c>
       <c r="E46" s="3">
-        <v>18692100</v>
+        <v>18701800</v>
       </c>
       <c r="F46" s="3">
-        <v>15484500</v>
+        <v>15492500</v>
       </c>
       <c r="G46" s="3">
-        <v>14397800</v>
+        <v>14405200</v>
       </c>
       <c r="H46" s="3">
-        <v>15743700</v>
+        <v>15751900</v>
       </c>
       <c r="I46" s="3">
-        <v>14530100</v>
+        <v>14537600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1851,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1211000</v>
+        <v>1211600</v>
       </c>
       <c r="E47" s="3">
-        <v>1173200</v>
+        <v>1173800</v>
       </c>
       <c r="F47" s="3">
-        <v>1517400</v>
+        <v>1930200</v>
       </c>
       <c r="G47" s="3">
-        <v>1108400</v>
+        <v>1157500</v>
       </c>
       <c r="H47" s="3">
-        <v>1233900</v>
+        <v>1234500</v>
       </c>
       <c r="I47" s="3">
-        <v>1098900</v>
+        <v>1099500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29385500</v>
+        <v>29400700</v>
       </c>
       <c r="E48" s="3">
-        <v>27021600</v>
+        <v>27035600</v>
       </c>
       <c r="F48" s="3">
-        <v>53082000</v>
+        <v>26554800</v>
       </c>
       <c r="G48" s="3">
-        <v>27452300</v>
+        <v>27466500</v>
       </c>
       <c r="H48" s="3">
-        <v>25374600</v>
+        <v>25387800</v>
       </c>
       <c r="I48" s="3">
-        <v>27083700</v>
+        <v>27097700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1917,22 +1917,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19938200</v>
+        <v>19948500</v>
       </c>
       <c r="E49" s="3">
-        <v>19774800</v>
+        <v>19785100</v>
       </c>
       <c r="F49" s="3">
-        <v>39382200</v>
+        <v>19821500</v>
       </c>
       <c r="G49" s="3">
-        <v>19458900</v>
+        <v>19589200</v>
       </c>
       <c r="H49" s="3">
-        <v>18747500</v>
+        <v>18534300</v>
       </c>
       <c r="I49" s="3">
-        <v>3931200</v>
+        <v>3933200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2016,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1094900</v>
+        <v>1095400</v>
       </c>
       <c r="E52" s="3">
-        <v>776300</v>
+        <v>776700</v>
       </c>
       <c r="F52" s="3">
-        <v>1233900</v>
+        <v>702400</v>
       </c>
       <c r="G52" s="3">
-        <v>761400</v>
+        <v>593000</v>
       </c>
       <c r="H52" s="3">
-        <v>328100</v>
+        <v>551100</v>
       </c>
       <c r="I52" s="3">
-        <v>525200</v>
+        <v>525400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>73691100</v>
+        <v>73729300</v>
       </c>
       <c r="E54" s="3">
-        <v>67437900</v>
+        <v>67472900</v>
       </c>
       <c r="F54" s="3">
-        <v>63709200</v>
+        <v>63742200</v>
       </c>
       <c r="G54" s="3">
-        <v>63178700</v>
+        <v>63211400</v>
       </c>
       <c r="H54" s="3">
-        <v>61427700</v>
+        <v>61459600</v>
       </c>
       <c r="I54" s="3">
-        <v>47169000</v>
+        <v>47193500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7826000</v>
+        <v>7830000</v>
       </c>
       <c r="E57" s="3">
-        <v>6991700</v>
+        <v>6995300</v>
       </c>
       <c r="F57" s="3">
-        <v>16773800</v>
+        <v>16782400</v>
       </c>
       <c r="G57" s="3">
-        <v>5421600</v>
+        <v>5424400</v>
       </c>
       <c r="H57" s="3">
-        <v>4121600</v>
+        <v>4123700</v>
       </c>
       <c r="I57" s="3">
-        <v>8278200</v>
+        <v>8282500</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2178,22 +2178,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4035200</v>
+        <v>4037200</v>
       </c>
       <c r="E58" s="3">
-        <v>3227900</v>
+        <v>3229500</v>
       </c>
       <c r="F58" s="3">
-        <v>569700</v>
+        <v>570000</v>
       </c>
       <c r="G58" s="3">
-        <v>2284200</v>
+        <v>2285400</v>
       </c>
       <c r="H58" s="3">
-        <v>2203200</v>
+        <v>2204300</v>
       </c>
       <c r="I58" s="3">
-        <v>2170800</v>
+        <v>2171900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2211,19 +2211,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7416900</v>
+        <v>7420700</v>
       </c>
       <c r="E59" s="3">
-        <v>6578600</v>
+        <v>6582000</v>
       </c>
       <c r="F59" s="3">
-        <v>4918100</v>
+        <v>4920600</v>
       </c>
       <c r="G59" s="3">
-        <v>4618400</v>
+        <v>4620700</v>
       </c>
       <c r="H59" s="3">
-        <v>4927500</v>
+        <v>4930100</v>
       </c>
       <c r="I59" s="3">
         <v>48600</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19278000</v>
+        <v>19288000</v>
       </c>
       <c r="E60" s="3">
-        <v>16798100</v>
+        <v>16806800</v>
       </c>
       <c r="F60" s="3">
-        <v>11448000</v>
+        <v>11453900</v>
       </c>
       <c r="G60" s="3">
-        <v>12324200</v>
+        <v>12330500</v>
       </c>
       <c r="H60" s="3">
-        <v>11252300</v>
+        <v>11258100</v>
       </c>
       <c r="I60" s="3">
-        <v>10497600</v>
+        <v>10503000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2277,22 +2277,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12067700</v>
+        <v>12073900</v>
       </c>
       <c r="E61" s="3">
-        <v>11414300</v>
+        <v>11420200</v>
       </c>
       <c r="F61" s="3">
-        <v>14766300</v>
+        <v>14774000</v>
       </c>
       <c r="G61" s="3">
-        <v>12706200</v>
+        <v>12712800</v>
       </c>
       <c r="H61" s="3">
-        <v>10247900</v>
+        <v>10253200</v>
       </c>
       <c r="I61" s="3">
-        <v>10945800</v>
+        <v>10951500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7430400</v>
+        <v>7434300</v>
       </c>
       <c r="E62" s="3">
-        <v>7232000</v>
+        <v>7235700</v>
       </c>
       <c r="F62" s="3">
-        <v>7250900</v>
+        <v>7254600</v>
       </c>
       <c r="G62" s="3">
-        <v>7275200</v>
+        <v>7278900</v>
       </c>
       <c r="H62" s="3">
-        <v>6953900</v>
+        <v>6957500</v>
       </c>
       <c r="I62" s="3">
-        <v>6253200</v>
+        <v>6256400</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38836800</v>
+        <v>38856900</v>
       </c>
       <c r="E66" s="3">
-        <v>35507700</v>
+        <v>35526100</v>
       </c>
       <c r="F66" s="3">
-        <v>33516500</v>
+        <v>33533800</v>
       </c>
       <c r="G66" s="3">
-        <v>32305500</v>
+        <v>32322300</v>
       </c>
       <c r="H66" s="3">
-        <v>28454000</v>
+        <v>28468700</v>
       </c>
       <c r="I66" s="3">
-        <v>27696600</v>
+        <v>27711000</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16102800</v>
+        <v>16111100</v>
       </c>
       <c r="E72" s="3">
-        <v>11059200</v>
+        <v>11064900</v>
       </c>
       <c r="F72" s="3">
-        <v>8918100</v>
+        <v>8922700</v>
       </c>
       <c r="G72" s="3">
-        <v>9586400</v>
+        <v>9591300</v>
       </c>
       <c r="H72" s="3">
-        <v>10455800</v>
+        <v>10461200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34854300</v>
+        <v>34872400</v>
       </c>
       <c r="E76" s="3">
-        <v>31930200</v>
+        <v>31946800</v>
       </c>
       <c r="F76" s="3">
-        <v>30192800</v>
+        <v>30208400</v>
       </c>
       <c r="G76" s="3">
-        <v>30873200</v>
+        <v>30889200</v>
       </c>
       <c r="H76" s="3">
-        <v>32973800</v>
+        <v>32990800</v>
       </c>
       <c r="I76" s="3">
-        <v>19472400</v>
+        <v>19482500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10341000</v>
+        <v>10346400</v>
       </c>
       <c r="E81" s="3">
-        <v>4256600</v>
+        <v>4258800</v>
       </c>
       <c r="F81" s="3">
-        <v>619700</v>
+        <v>620000</v>
       </c>
       <c r="G81" s="3">
-        <v>1339200</v>
+        <v>1339900</v>
       </c>
       <c r="H81" s="3">
-        <v>4823600</v>
+        <v>4826100</v>
       </c>
       <c r="I81" s="3">
-        <v>866700</v>
+        <v>867100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2716200</v>
+        <v>2717600</v>
       </c>
       <c r="E83" s="3">
-        <v>2633900</v>
+        <v>2635200</v>
       </c>
       <c r="F83" s="3">
-        <v>2685200</v>
+        <v>2686500</v>
       </c>
       <c r="G83" s="3">
-        <v>2428700</v>
+        <v>2429900</v>
       </c>
       <c r="H83" s="3">
-        <v>2149200</v>
+        <v>2150300</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10948500</v>
+        <v>10954200</v>
       </c>
       <c r="E89" s="3">
-        <v>5246100</v>
+        <v>5248800</v>
       </c>
       <c r="F89" s="3">
-        <v>4486100</v>
+        <v>4488400</v>
       </c>
       <c r="G89" s="3">
-        <v>4947800</v>
+        <v>4950300</v>
       </c>
       <c r="H89" s="3">
-        <v>2770200</v>
+        <v>2771600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3291300</v>
+        <v>-3293000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2407100</v>
+        <v>-2408300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1921100</v>
+        <v>-1922000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2332800</v>
+        <v>-2334000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1896800</v>
+        <v>-1897700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3916400</v>
+        <v>-3918400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2439500</v>
+        <v>-2440700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1625400</v>
+        <v>-1626200</v>
       </c>
       <c r="G94" s="3">
-        <v>-3777300</v>
+        <v>-3779300</v>
       </c>
       <c r="H94" s="3">
-        <v>5247500</v>
+        <v>5250200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3299,19 +3299,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1391900</v>
+        <v>-1392600</v>
       </c>
       <c r="E96" s="3">
-        <v>-1410800</v>
+        <v>-1411500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1390500</v>
+        <v>-1391200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1379700</v>
+        <v>-1380400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1285200</v>
+        <v>-1285900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6386900</v>
+        <v>-6390200</v>
       </c>
       <c r="E100" s="3">
-        <v>-4054100</v>
+        <v>-4056200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1807700</v>
+        <v>-1808600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3346700</v>
+        <v>-3348400</v>
       </c>
       <c r="H100" s="3">
-        <v>-5001800</v>
+        <v>-5004300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-102600</v>
+        <v>-102700</v>
       </c>
       <c r="E101" s="3">
         <v>-41900</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>542700</v>
+        <v>543000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1289300</v>
+        <v>-1289900</v>
       </c>
       <c r="F102" s="3">
-        <v>1057100</v>
+        <v>1057600</v>
       </c>
       <c r="G102" s="3">
-        <v>-2218100</v>
+        <v>-2219200</v>
       </c>
       <c r="H102" s="3">
-        <v>2967300</v>
+        <v>2968800</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/NTR_YR_FIN.xlsx
@@ -718,22 +718,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>51169900</v>
+        <v>52109400</v>
       </c>
       <c r="E8" s="3">
-        <v>37430600</v>
+        <v>38117900</v>
       </c>
       <c r="F8" s="3">
-        <v>28240400</v>
+        <v>28759000</v>
       </c>
       <c r="G8" s="3">
-        <v>27127500</v>
+        <v>27625500</v>
       </c>
       <c r="H8" s="3">
-        <v>26522300</v>
+        <v>27009300</v>
       </c>
       <c r="I8" s="3">
-        <v>24540900</v>
+        <v>24991500</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -751,22 +751,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>31564500</v>
+        <v>32144100</v>
       </c>
       <c r="E9" s="3">
-        <v>25182500</v>
+        <v>25644800</v>
       </c>
       <c r="F9" s="3">
-        <v>21280300</v>
+        <v>21671000</v>
       </c>
       <c r="G9" s="3">
-        <v>19952500</v>
+        <v>20318900</v>
       </c>
       <c r="H9" s="3">
-        <v>19455500</v>
+        <v>19812700</v>
       </c>
       <c r="I9" s="3">
-        <v>18934100</v>
+        <v>19281800</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -784,22 +784,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>19605400</v>
+        <v>19965400</v>
       </c>
       <c r="E10" s="3">
-        <v>12248100</v>
+        <v>12473000</v>
       </c>
       <c r="F10" s="3">
-        <v>6960200</v>
+        <v>7088000</v>
       </c>
       <c r="G10" s="3">
-        <v>7174900</v>
+        <v>7306700</v>
       </c>
       <c r="H10" s="3">
-        <v>7066900</v>
+        <v>7196600</v>
       </c>
       <c r="I10" s="3">
-        <v>5606800</v>
+        <v>5709700</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -898,19 +898,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-980600</v>
+        <v>-998600</v>
       </c>
       <c r="E14" s="3">
-        <v>355200</v>
+        <v>361800</v>
       </c>
       <c r="F14" s="3">
-        <v>954900</v>
+        <v>972500</v>
       </c>
       <c r="G14" s="3">
-        <v>294500</v>
+        <v>299900</v>
       </c>
       <c r="H14" s="3">
-        <v>2673000</v>
+        <v>2722100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -931,19 +931,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1037300</v>
+        <v>1056400</v>
       </c>
       <c r="E15" s="3">
-        <v>961700</v>
+        <v>979400</v>
       </c>
       <c r="F15" s="3">
-        <v>606500</v>
+        <v>617600</v>
       </c>
       <c r="G15" s="3">
-        <v>518700</v>
+        <v>528200</v>
       </c>
       <c r="H15" s="3">
-        <v>397100</v>
+        <v>404400</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -976,22 +976,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36570200</v>
+        <v>37241700</v>
       </c>
       <c r="E17" s="3">
-        <v>31164700</v>
+        <v>31736900</v>
       </c>
       <c r="F17" s="3">
-        <v>27047800</v>
+        <v>27544400</v>
       </c>
       <c r="G17" s="3">
-        <v>24612500</v>
+        <v>25064400</v>
       </c>
       <c r="H17" s="3">
-        <v>26175200</v>
+        <v>26655800</v>
       </c>
       <c r="I17" s="3">
-        <v>22932200</v>
+        <v>23353200</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1009,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14599700</v>
+        <v>14867800</v>
       </c>
       <c r="E18" s="3">
-        <v>6265900</v>
+        <v>6380900</v>
       </c>
       <c r="F18" s="3">
-        <v>1192700</v>
+        <v>1214600</v>
       </c>
       <c r="G18" s="3">
-        <v>2515000</v>
+        <v>2561200</v>
       </c>
       <c r="H18" s="3">
-        <v>347100</v>
+        <v>353500</v>
       </c>
       <c r="I18" s="3">
-        <v>1608700</v>
+        <v>1638200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1057,22 +1057,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-106700</v>
+        <v>-108700</v>
       </c>
       <c r="E20" s="3">
-        <v>10800</v>
+        <v>11000</v>
       </c>
       <c r="F20" s="3">
-        <v>-60800</v>
+        <v>-61900</v>
       </c>
       <c r="G20" s="3">
-        <v>-86400</v>
+        <v>-88000</v>
       </c>
       <c r="H20" s="3">
-        <v>145900</v>
+        <v>148600</v>
       </c>
       <c r="I20" s="3">
-        <v>-695600</v>
+        <v>-708400</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17210600</v>
+        <v>17511100</v>
       </c>
       <c r="E21" s="3">
-        <v>8911900</v>
+        <v>9060500</v>
       </c>
       <c r="F21" s="3">
-        <v>3818400</v>
+        <v>3873200</v>
       </c>
       <c r="G21" s="3">
-        <v>4858500</v>
+        <v>4933800</v>
       </c>
       <c r="H21" s="3">
-        <v>2643300</v>
+        <v>2679600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>653700</v>
+        <v>665700</v>
       </c>
       <c r="E22" s="3">
-        <v>647000</v>
+        <v>658900</v>
       </c>
       <c r="F22" s="3">
-        <v>615900</v>
+        <v>627200</v>
       </c>
       <c r="G22" s="3">
-        <v>661800</v>
+        <v>674000</v>
       </c>
       <c r="H22" s="3">
-        <v>660500</v>
+        <v>672600</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>13839300</v>
+        <v>14093400</v>
       </c>
       <c r="E23" s="3">
-        <v>5629700</v>
+        <v>5733100</v>
       </c>
       <c r="F23" s="3">
-        <v>516000</v>
+        <v>525400</v>
       </c>
       <c r="G23" s="3">
-        <v>1766700</v>
+        <v>1799200</v>
       </c>
       <c r="H23" s="3">
-        <v>-167500</v>
+        <v>-170600</v>
       </c>
       <c r="I23" s="3">
-        <v>913100</v>
+        <v>929800</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1189,22 +1189,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3456400</v>
+        <v>3519900</v>
       </c>
       <c r="E24" s="3">
-        <v>1335800</v>
+        <v>1360400</v>
       </c>
       <c r="F24" s="3">
-        <v>-104000</v>
+        <v>-105900</v>
       </c>
       <c r="G24" s="3">
-        <v>426800</v>
+        <v>434700</v>
       </c>
       <c r="H24" s="3">
-        <v>-125600</v>
+        <v>-127900</v>
       </c>
       <c r="I24" s="3">
-        <v>27000</v>
+        <v>27500</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1255,22 +1255,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>10382800</v>
+        <v>10573500</v>
       </c>
       <c r="E26" s="3">
-        <v>4293900</v>
+        <v>4372700</v>
       </c>
       <c r="F26" s="3">
-        <v>620000</v>
+        <v>631400</v>
       </c>
       <c r="G26" s="3">
-        <v>1339900</v>
+        <v>1364500</v>
       </c>
       <c r="H26" s="3">
-        <v>-41900</v>
+        <v>-42600</v>
       </c>
       <c r="I26" s="3">
-        <v>886100</v>
+        <v>902300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1288,22 +1288,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>10346400</v>
+        <v>10536300</v>
       </c>
       <c r="E27" s="3">
-        <v>4258800</v>
+        <v>4337000</v>
       </c>
       <c r="F27" s="3">
-        <v>620000</v>
+        <v>631400</v>
       </c>
       <c r="G27" s="3">
-        <v>1339900</v>
+        <v>1364500</v>
       </c>
       <c r="H27" s="3">
-        <v>-41900</v>
+        <v>-42600</v>
       </c>
       <c r="I27" s="3">
-        <v>886100</v>
+        <v>902300</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1366,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>4867900</v>
+        <v>4957300</v>
       </c>
       <c r="I29" s="3">
-        <v>-18900</v>
+        <v>-19300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
@@ -1453,22 +1453,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>106700</v>
+        <v>108700</v>
       </c>
       <c r="E32" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="F32" s="3">
-        <v>60800</v>
+        <v>61900</v>
       </c>
       <c r="G32" s="3">
-        <v>86400</v>
+        <v>88000</v>
       </c>
       <c r="H32" s="3">
-        <v>-145900</v>
+        <v>-148600</v>
       </c>
       <c r="I32" s="3">
-        <v>695600</v>
+        <v>708400</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1486,22 +1486,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>10346400</v>
+        <v>10536300</v>
       </c>
       <c r="E33" s="3">
-        <v>4258800</v>
+        <v>4337000</v>
       </c>
       <c r="F33" s="3">
-        <v>620000</v>
+        <v>631400</v>
       </c>
       <c r="G33" s="3">
-        <v>1339900</v>
+        <v>1364500</v>
       </c>
       <c r="H33" s="3">
-        <v>4826100</v>
+        <v>4914700</v>
       </c>
       <c r="I33" s="3">
-        <v>867100</v>
+        <v>883100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1552,22 +1552,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>10346400</v>
+        <v>10536300</v>
       </c>
       <c r="E35" s="3">
-        <v>4258800</v>
+        <v>4337000</v>
       </c>
       <c r="F35" s="3">
-        <v>620000</v>
+        <v>631400</v>
       </c>
       <c r="G35" s="3">
-        <v>1339900</v>
+        <v>1364500</v>
       </c>
       <c r="H35" s="3">
-        <v>4826100</v>
+        <v>4914700</v>
       </c>
       <c r="I35" s="3">
-        <v>867100</v>
+        <v>883100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1653,22 +1653,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1217000</v>
+        <v>1239300</v>
       </c>
       <c r="E41" s="3">
-        <v>674000</v>
+        <v>686400</v>
       </c>
       <c r="F41" s="3">
-        <v>3927800</v>
+        <v>4000000</v>
       </c>
       <c r="G41" s="3">
-        <v>906300</v>
+        <v>923000</v>
       </c>
       <c r="H41" s="3">
-        <v>3125500</v>
+        <v>3182900</v>
       </c>
       <c r="I41" s="3">
-        <v>786100</v>
+        <v>800500</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1719,19 +1719,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8366200</v>
+        <v>8519800</v>
       </c>
       <c r="E43" s="3">
-        <v>7247900</v>
+        <v>7380900</v>
       </c>
       <c r="F43" s="3">
-        <v>4836900</v>
+        <v>4925700</v>
       </c>
       <c r="G43" s="3">
-        <v>4784200</v>
+        <v>4872000</v>
       </c>
       <c r="H43" s="3">
-        <v>4514000</v>
+        <v>4596900</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1752,22 +1752,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10308500</v>
+        <v>10497800</v>
       </c>
       <c r="E44" s="3">
-        <v>8547200</v>
+        <v>8704200</v>
       </c>
       <c r="F44" s="3">
-        <v>13317900</v>
+        <v>13562400</v>
       </c>
       <c r="G44" s="3">
-        <v>6719700</v>
+        <v>6843100</v>
       </c>
       <c r="H44" s="3">
-        <v>6641400</v>
+        <v>6763300</v>
       </c>
       <c r="I44" s="3">
-        <v>5550000</v>
+        <v>5651900</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1785,22 +1785,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2181400</v>
+        <v>2221400</v>
       </c>
       <c r="E45" s="3">
-        <v>2232700</v>
+        <v>2273700</v>
       </c>
       <c r="F45" s="3">
-        <v>2032800</v>
+        <v>2070100</v>
       </c>
       <c r="G45" s="3">
-        <v>1995000</v>
+        <v>2031600</v>
       </c>
       <c r="H45" s="3">
-        <v>1470900</v>
+        <v>1497900</v>
       </c>
       <c r="I45" s="3">
-        <v>4266900</v>
+        <v>4345200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1818,22 +1818,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22073100</v>
+        <v>22478400</v>
       </c>
       <c r="E46" s="3">
-        <v>18701800</v>
+        <v>19045200</v>
       </c>
       <c r="F46" s="3">
-        <v>15492500</v>
+        <v>15777000</v>
       </c>
       <c r="G46" s="3">
-        <v>14405200</v>
+        <v>14669700</v>
       </c>
       <c r="H46" s="3">
-        <v>15751900</v>
+        <v>16041100</v>
       </c>
       <c r="I46" s="3">
-        <v>14537600</v>
+        <v>14804500</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1851,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1211600</v>
+        <v>1233800</v>
       </c>
       <c r="E47" s="3">
-        <v>1173800</v>
+        <v>1195300</v>
       </c>
       <c r="F47" s="3">
-        <v>1930200</v>
+        <v>1965600</v>
       </c>
       <c r="G47" s="3">
-        <v>1157500</v>
+        <v>1178800</v>
       </c>
       <c r="H47" s="3">
-        <v>1234500</v>
+        <v>1257200</v>
       </c>
       <c r="I47" s="3">
-        <v>1099500</v>
+        <v>1119700</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1884,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29400700</v>
+        <v>29940500</v>
       </c>
       <c r="E48" s="3">
-        <v>27035600</v>
+        <v>27532000</v>
       </c>
       <c r="F48" s="3">
-        <v>26554800</v>
+        <v>27042300</v>
       </c>
       <c r="G48" s="3">
-        <v>27466500</v>
+        <v>27970800</v>
       </c>
       <c r="H48" s="3">
-        <v>25387800</v>
+        <v>25853900</v>
       </c>
       <c r="I48" s="3">
-        <v>27097700</v>
+        <v>27595300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1917,22 +1917,22 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>19948500</v>
+        <v>20314800</v>
       </c>
       <c r="E49" s="3">
-        <v>19785100</v>
+        <v>20148300</v>
       </c>
       <c r="F49" s="3">
-        <v>19821500</v>
+        <v>20185500</v>
       </c>
       <c r="G49" s="3">
-        <v>19589200</v>
+        <v>19948900</v>
       </c>
       <c r="H49" s="3">
-        <v>18534300</v>
+        <v>18874600</v>
       </c>
       <c r="I49" s="3">
-        <v>3933200</v>
+        <v>4005500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2016,22 +2016,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1095400</v>
+        <v>1115500</v>
       </c>
       <c r="E52" s="3">
-        <v>776700</v>
+        <v>790900</v>
       </c>
       <c r="F52" s="3">
-        <v>702400</v>
+        <v>715300</v>
       </c>
       <c r="G52" s="3">
-        <v>593000</v>
+        <v>603800</v>
       </c>
       <c r="H52" s="3">
-        <v>551100</v>
+        <v>561200</v>
       </c>
       <c r="I52" s="3">
-        <v>525400</v>
+        <v>535100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2082,22 +2082,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>73729300</v>
+        <v>75083000</v>
       </c>
       <c r="E54" s="3">
-        <v>67472900</v>
+        <v>68711700</v>
       </c>
       <c r="F54" s="3">
-        <v>63742200</v>
+        <v>64912600</v>
       </c>
       <c r="G54" s="3">
-        <v>63211400</v>
+        <v>64372000</v>
       </c>
       <c r="H54" s="3">
-        <v>61459600</v>
+        <v>62588000</v>
       </c>
       <c r="I54" s="3">
-        <v>47193500</v>
+        <v>48060000</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2145,22 +2145,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7830000</v>
+        <v>7973800</v>
       </c>
       <c r="E57" s="3">
-        <v>6995300</v>
+        <v>7123700</v>
       </c>
       <c r="F57" s="3">
-        <v>16782400</v>
+        <v>17090600</v>
       </c>
       <c r="G57" s="3">
-        <v>5424400</v>
+        <v>5524000</v>
       </c>
       <c r="H57" s="3">
-        <v>4123700</v>
+        <v>4199400</v>
       </c>
       <c r="I57" s="3">
-        <v>8282500</v>
+        <v>8434600</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2178,22 +2178,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4037200</v>
+        <v>4111400</v>
       </c>
       <c r="E58" s="3">
-        <v>3229500</v>
+        <v>3288800</v>
       </c>
       <c r="F58" s="3">
-        <v>570000</v>
+        <v>580500</v>
       </c>
       <c r="G58" s="3">
-        <v>2285400</v>
+        <v>2327300</v>
       </c>
       <c r="H58" s="3">
-        <v>2204300</v>
+        <v>2244800</v>
       </c>
       <c r="I58" s="3">
-        <v>2171900</v>
+        <v>2211800</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2211,22 +2211,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7420700</v>
+        <v>7557000</v>
       </c>
       <c r="E59" s="3">
-        <v>6582000</v>
+        <v>6702800</v>
       </c>
       <c r="F59" s="3">
-        <v>4920600</v>
+        <v>5010900</v>
       </c>
       <c r="G59" s="3">
-        <v>4620700</v>
+        <v>4705600</v>
       </c>
       <c r="H59" s="3">
-        <v>4930100</v>
+        <v>5020600</v>
       </c>
       <c r="I59" s="3">
-        <v>48600</v>
+        <v>49500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2244,22 +2244,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19288000</v>
+        <v>19642100</v>
       </c>
       <c r="E60" s="3">
-        <v>16806800</v>
+        <v>17115300</v>
       </c>
       <c r="F60" s="3">
-        <v>11453900</v>
+        <v>11664200</v>
       </c>
       <c r="G60" s="3">
-        <v>12330500</v>
+        <v>12556900</v>
       </c>
       <c r="H60" s="3">
-        <v>11258100</v>
+        <v>11464800</v>
       </c>
       <c r="I60" s="3">
-        <v>10503000</v>
+        <v>10695900</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2277,22 +2277,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12073900</v>
+        <v>12295600</v>
       </c>
       <c r="E61" s="3">
-        <v>11420200</v>
+        <v>11629900</v>
       </c>
       <c r="F61" s="3">
-        <v>14774000</v>
+        <v>15045200</v>
       </c>
       <c r="G61" s="3">
-        <v>12712800</v>
+        <v>12946200</v>
       </c>
       <c r="H61" s="3">
-        <v>10253200</v>
+        <v>10441400</v>
       </c>
       <c r="I61" s="3">
-        <v>10951500</v>
+        <v>11152600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7434300</v>
+        <v>7570800</v>
       </c>
       <c r="E62" s="3">
-        <v>7235700</v>
+        <v>7368600</v>
       </c>
       <c r="F62" s="3">
-        <v>7254600</v>
+        <v>7387800</v>
       </c>
       <c r="G62" s="3">
-        <v>7278900</v>
+        <v>7412600</v>
       </c>
       <c r="H62" s="3">
-        <v>6957500</v>
+        <v>7085200</v>
       </c>
       <c r="I62" s="3">
-        <v>6256400</v>
+        <v>6371300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2442,22 +2442,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38856900</v>
+        <v>39570400</v>
       </c>
       <c r="E66" s="3">
-        <v>35526100</v>
+        <v>36178400</v>
       </c>
       <c r="F66" s="3">
-        <v>33533800</v>
+        <v>34149500</v>
       </c>
       <c r="G66" s="3">
-        <v>32322300</v>
+        <v>32915700</v>
       </c>
       <c r="H66" s="3">
-        <v>28468700</v>
+        <v>28991400</v>
       </c>
       <c r="I66" s="3">
-        <v>27711000</v>
+        <v>28219800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2622,19 +2622,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16111100</v>
+        <v>16407000</v>
       </c>
       <c r="E72" s="3">
-        <v>11064900</v>
+        <v>11268100</v>
       </c>
       <c r="F72" s="3">
-        <v>8922700</v>
+        <v>9086600</v>
       </c>
       <c r="G72" s="3">
-        <v>9591300</v>
+        <v>9767400</v>
       </c>
       <c r="H72" s="3">
-        <v>10461200</v>
+        <v>10653200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34872400</v>
+        <v>35512700</v>
       </c>
       <c r="E76" s="3">
-        <v>31946800</v>
+        <v>32533300</v>
       </c>
       <c r="F76" s="3">
-        <v>30208400</v>
+        <v>30763100</v>
       </c>
       <c r="G76" s="3">
-        <v>30889200</v>
+        <v>31456300</v>
       </c>
       <c r="H76" s="3">
-        <v>32990800</v>
+        <v>33596600</v>
       </c>
       <c r="I76" s="3">
-        <v>19482500</v>
+        <v>19840200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2858,22 +2858,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>10346400</v>
+        <v>10536300</v>
       </c>
       <c r="E81" s="3">
-        <v>4258800</v>
+        <v>4337000</v>
       </c>
       <c r="F81" s="3">
-        <v>620000</v>
+        <v>631400</v>
       </c>
       <c r="G81" s="3">
-        <v>1339900</v>
+        <v>1364500</v>
       </c>
       <c r="H81" s="3">
-        <v>4826100</v>
+        <v>4914700</v>
       </c>
       <c r="I81" s="3">
-        <v>867100</v>
+        <v>883100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2717600</v>
+        <v>2767500</v>
       </c>
       <c r="E83" s="3">
-        <v>2635200</v>
+        <v>2683600</v>
       </c>
       <c r="F83" s="3">
-        <v>2686500</v>
+        <v>2735900</v>
       </c>
       <c r="G83" s="3">
-        <v>2429900</v>
+        <v>2474500</v>
       </c>
       <c r="H83" s="3">
-        <v>2150300</v>
+        <v>2189800</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10954200</v>
+        <v>11155300</v>
       </c>
       <c r="E89" s="3">
-        <v>5248800</v>
+        <v>5345200</v>
       </c>
       <c r="F89" s="3">
-        <v>4488400</v>
+        <v>4570800</v>
       </c>
       <c r="G89" s="3">
-        <v>4950300</v>
+        <v>5041200</v>
       </c>
       <c r="H89" s="3">
-        <v>2771600</v>
+        <v>2822500</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3293000</v>
+        <v>-3353500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2408300</v>
+        <v>-2452500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1922000</v>
+        <v>-1957300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2334000</v>
+        <v>-2376900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1897700</v>
+        <v>-1932600</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3918400</v>
+        <v>-3990300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2440700</v>
+        <v>-2485500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1626200</v>
+        <v>-1656100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3779300</v>
+        <v>-3848600</v>
       </c>
       <c r="H94" s="3">
-        <v>5250200</v>
+        <v>5346600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3299,19 +3299,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1392600</v>
+        <v>-1418100</v>
       </c>
       <c r="E96" s="3">
-        <v>-1411500</v>
+        <v>-1437400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1391200</v>
+        <v>-1416800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1380400</v>
+        <v>-1405800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1285900</v>
+        <v>-1309500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6390200</v>
+        <v>-6507500</v>
       </c>
       <c r="E100" s="3">
-        <v>-4056200</v>
+        <v>-4130600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1808600</v>
+        <v>-1841800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3348400</v>
+        <v>-3409900</v>
       </c>
       <c r="H100" s="3">
-        <v>-5004300</v>
+        <v>-5096200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-102700</v>
+        <v>-104500</v>
       </c>
       <c r="E101" s="3">
-        <v>-41900</v>
+        <v>-42600</v>
       </c>
       <c r="F101" s="3">
         <v>4100</v>
       </c>
       <c r="G101" s="3">
-        <v>-41900</v>
+        <v>-42600</v>
       </c>
       <c r="H101" s="3">
-        <v>-48600</v>
+        <v>-49500</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>543000</v>
+        <v>553000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1289900</v>
+        <v>-1313600</v>
       </c>
       <c r="F102" s="3">
-        <v>1057600</v>
+        <v>1077000</v>
       </c>
       <c r="G102" s="3">
-        <v>-2219200</v>
+        <v>-2259900</v>
       </c>
       <c r="H102" s="3">
-        <v>2968800</v>
+        <v>3023300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
